--- a/Översikt ORUST.xlsx
+++ b/Översikt ORUST.xlsx
@@ -572,7 +572,7 @@
         <v>44098</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>44112</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
         <v>44476</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -855,7 +855,7 @@
         <v>44559</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         <v>44546</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1034,7 +1034,7 @@
         <v>45014</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         <v>43493</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1215,7 +1215,7 @@
         <v>43514</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1301,7 +1301,7 @@
         <v>43870</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1391,7 +1391,7 @@
         <v>44266</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1477,7 +1477,7 @@
         <v>43506</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1562,7 +1562,7 @@
         <v>43621</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1647,7 +1647,7 @@
         <v>43621</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1732,7 +1732,7 @@
         <v>43819</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1821,7 +1821,7 @@
         <v>43858</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>43858</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2000,7 +2000,7 @@
         <v>44809</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>45014</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         <v>45058</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2267,7 +2267,7 @@
         <v>43332</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2324,7 +2324,7 @@
         <v>43347</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2381,7 +2381,7 @@
         <v>43369</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
         <v>43390</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>43397</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         <v>43438</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2609,7 +2609,7 @@
         <v>43438</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2666,7 +2666,7 @@
         <v>43440</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2723,7 +2723,7 @@
         <v>43446</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2780,7 +2780,7 @@
         <v>43446</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2837,7 +2837,7 @@
         <v>43455</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2894,7 +2894,7 @@
         <v>43468</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2951,7 +2951,7 @@
         <v>43480</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3008,7 +3008,7 @@
         <v>43486</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3065,7 +3065,7 @@
         <v>43487</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
         <v>43493</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3179,7 +3179,7 @@
         <v>43503</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3236,7 +3236,7 @@
         <v>43509</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3298,7 +3298,7 @@
         <v>43523</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
         <v>43524</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3412,7 +3412,7 @@
         <v>43552</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3469,7 +3469,7 @@
         <v>43567</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3526,7 +3526,7 @@
         <v>43606</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3583,7 +3583,7 @@
         <v>43606</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3640,7 +3640,7 @@
         <v>43621</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3697,7 +3697,7 @@
         <v>43621</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3754,7 +3754,7 @@
         <v>43621</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3811,7 +3811,7 @@
         <v>43621</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3868,7 +3868,7 @@
         <v>43621</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3925,7 +3925,7 @@
         <v>43636</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3982,7 +3982,7 @@
         <v>43642</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>43649</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         <v>43652</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4173,7 +4173,7 @@
         <v>43788</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4230,7 +4230,7 @@
         <v>43788</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4287,7 +4287,7 @@
         <v>43804</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4344,7 +4344,7 @@
         <v>43840</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>43840</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4458,7 +4458,7 @@
         <v>43858</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>43858</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4582,7 +4582,7 @@
         <v>43858</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4639,7 +4639,7 @@
         <v>43958</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4696,7 +4696,7 @@
         <v>44006</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4753,7 +4753,7 @@
         <v>44112</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4810,7 +4810,7 @@
         <v>44141</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4867,7 +4867,7 @@
         <v>44155</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         <v>44169</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4981,7 +4981,7 @@
         <v>44172</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5038,7 +5038,7 @@
         <v>44182</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5095,7 +5095,7 @@
         <v>44236</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5152,7 +5152,7 @@
         <v>44250</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
         <v>44258</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>44319</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5323,7 +5323,7 @@
         <v>44326</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5380,7 +5380,7 @@
         <v>44326</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5437,7 +5437,7 @@
         <v>44386</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5494,7 +5494,7 @@
         <v>44439</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
         <v>44439</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         <v>44441</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5665,7 +5665,7 @@
         <v>44445</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5722,7 +5722,7 @@
         <v>44448</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         <v>44448</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5836,7 +5836,7 @@
         <v>44448</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5893,7 +5893,7 @@
         <v>44448</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5950,7 +5950,7 @@
         <v>44448</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6007,7 +6007,7 @@
         <v>44448</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6064,7 +6064,7 @@
         <v>44453</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6126,7 +6126,7 @@
         <v>44476</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6183,7 +6183,7 @@
         <v>44480</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6240,7 +6240,7 @@
         <v>44529</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6297,7 +6297,7 @@
         <v>44531</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6354,7 +6354,7 @@
         <v>44544</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6411,7 +6411,7 @@
         <v>44550</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>44609</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         <v>44610</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6582,7 +6582,7 @@
         <v>44655</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>44657</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6696,7 +6696,7 @@
         <v>44694</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
         <v>44790</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>44791</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>44792</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6924,7 +6924,7 @@
         <v>44827</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6981,7 +6981,7 @@
         <v>44862</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7038,7 +7038,7 @@
         <v>44872</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7095,7 +7095,7 @@
         <v>44881</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7152,7 +7152,7 @@
         <v>44904</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7209,7 +7209,7 @@
         <v>44931</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7266,7 +7266,7 @@
         <v>45002</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7323,7 +7323,7 @@
         <v>45014</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7380,7 +7380,7 @@
         <v>45014</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7437,7 +7437,7 @@
         <v>45014</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7494,7 +7494,7 @@
         <v>45014</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7551,7 +7551,7 @@
         <v>45014</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7608,7 +7608,7 @@
         <v>45014</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7665,7 +7665,7 @@
         <v>45020</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7722,7 +7722,7 @@
         <v>45020</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7779,7 +7779,7 @@
         <v>45020</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7836,7 +7836,7 @@
         <v>45044</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7893,7 +7893,7 @@
         <v>45045</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7950,7 +7950,7 @@
         <v>45054</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8007,7 +8007,7 @@
         <v>45054</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8064,7 +8064,7 @@
         <v>45058</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8121,7 +8121,7 @@
         <v>45130</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>

--- a/Översikt ORUST.xlsx
+++ b/Översikt ORUST.xlsx
@@ -572,7 +572,7 @@
         <v>44098</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>44112</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
         <v>44476</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -855,7 +855,7 @@
         <v>44559</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         <v>44546</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1034,7 +1034,7 @@
         <v>45014</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         <v>43493</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1215,7 +1215,7 @@
         <v>43514</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1301,7 +1301,7 @@
         <v>43870</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1391,7 +1391,7 @@
         <v>44266</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1477,7 +1477,7 @@
         <v>43506</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1562,7 +1562,7 @@
         <v>43621</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1647,7 +1647,7 @@
         <v>43621</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1732,7 +1732,7 @@
         <v>43819</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1821,7 +1821,7 @@
         <v>43858</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>43858</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2000,7 +2000,7 @@
         <v>44809</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>45014</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         <v>45058</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2267,7 +2267,7 @@
         <v>43332</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2324,7 +2324,7 @@
         <v>43347</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2381,7 +2381,7 @@
         <v>43369</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
         <v>43390</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>43397</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         <v>43438</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2609,7 +2609,7 @@
         <v>43438</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2666,7 +2666,7 @@
         <v>43440</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2723,7 +2723,7 @@
         <v>43446</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2780,7 +2780,7 @@
         <v>43446</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2837,7 +2837,7 @@
         <v>43455</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2894,7 +2894,7 @@
         <v>43468</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2951,7 +2951,7 @@
         <v>43480</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3008,7 +3008,7 @@
         <v>43486</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3065,7 +3065,7 @@
         <v>43487</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
         <v>43493</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3179,7 +3179,7 @@
         <v>43503</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3236,7 +3236,7 @@
         <v>43509</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3298,7 +3298,7 @@
         <v>43523</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
         <v>43524</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3412,7 +3412,7 @@
         <v>43552</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3469,7 +3469,7 @@
         <v>43567</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3526,7 +3526,7 @@
         <v>43606</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3583,7 +3583,7 @@
         <v>43606</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3640,7 +3640,7 @@
         <v>43621</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3697,7 +3697,7 @@
         <v>43621</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3754,7 +3754,7 @@
         <v>43621</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3811,7 +3811,7 @@
         <v>43621</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3868,7 +3868,7 @@
         <v>43621</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3925,7 +3925,7 @@
         <v>43636</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3982,7 +3982,7 @@
         <v>43642</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>43649</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         <v>43652</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4173,7 +4173,7 @@
         <v>43788</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4230,7 +4230,7 @@
         <v>43788</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4287,7 +4287,7 @@
         <v>43804</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4344,7 +4344,7 @@
         <v>43840</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>43840</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4458,7 +4458,7 @@
         <v>43858</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>43858</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4582,7 +4582,7 @@
         <v>43858</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4639,7 +4639,7 @@
         <v>43958</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4696,7 +4696,7 @@
         <v>44006</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4753,7 +4753,7 @@
         <v>44112</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4810,7 +4810,7 @@
         <v>44141</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4867,7 +4867,7 @@
         <v>44155</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         <v>44169</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4981,7 +4981,7 @@
         <v>44172</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5038,7 +5038,7 @@
         <v>44182</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5095,7 +5095,7 @@
         <v>44236</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5152,7 +5152,7 @@
         <v>44250</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
         <v>44258</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>44319</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5323,7 +5323,7 @@
         <v>44326</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5380,7 +5380,7 @@
         <v>44326</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5437,7 +5437,7 @@
         <v>44386</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5494,7 +5494,7 @@
         <v>44439</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
         <v>44439</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         <v>44441</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5665,7 +5665,7 @@
         <v>44445</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5722,7 +5722,7 @@
         <v>44448</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         <v>44448</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5836,7 +5836,7 @@
         <v>44448</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5893,7 +5893,7 @@
         <v>44448</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5950,7 +5950,7 @@
         <v>44448</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6007,7 +6007,7 @@
         <v>44448</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6064,7 +6064,7 @@
         <v>44453</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6126,7 +6126,7 @@
         <v>44476</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6183,7 +6183,7 @@
         <v>44480</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6240,7 +6240,7 @@
         <v>44529</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6297,7 +6297,7 @@
         <v>44531</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6354,7 +6354,7 @@
         <v>44544</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6411,7 +6411,7 @@
         <v>44550</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>44609</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         <v>44610</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6582,7 +6582,7 @@
         <v>44655</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>44657</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6696,7 +6696,7 @@
         <v>44694</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
         <v>44790</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>44791</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>44792</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6924,7 +6924,7 @@
         <v>44827</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6981,7 +6981,7 @@
         <v>44862</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7038,7 +7038,7 @@
         <v>44872</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7095,7 +7095,7 @@
         <v>44881</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7152,7 +7152,7 @@
         <v>44904</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7209,7 +7209,7 @@
         <v>44931</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7266,7 +7266,7 @@
         <v>45002</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7323,7 +7323,7 @@
         <v>45014</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7380,7 +7380,7 @@
         <v>45014</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7437,7 +7437,7 @@
         <v>45014</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7494,7 +7494,7 @@
         <v>45014</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7551,7 +7551,7 @@
         <v>45014</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7608,7 +7608,7 @@
         <v>45014</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7665,7 +7665,7 @@
         <v>45020</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7722,7 +7722,7 @@
         <v>45020</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7779,7 +7779,7 @@
         <v>45020</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7836,7 +7836,7 @@
         <v>45044</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7893,7 +7893,7 @@
         <v>45045</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7950,7 +7950,7 @@
         <v>45054</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8007,7 +8007,7 @@
         <v>45054</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8064,7 +8064,7 @@
         <v>45058</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8121,7 +8121,7 @@
         <v>45130</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>

--- a/Översikt ORUST.xlsx
+++ b/Översikt ORUST.xlsx
@@ -572,7 +572,7 @@
         <v>44098</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>44112</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
         <v>44476</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -855,7 +855,7 @@
         <v>44559</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         <v>44546</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1034,7 +1034,7 @@
         <v>45014</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         <v>43493</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1215,7 +1215,7 @@
         <v>43514</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1301,7 +1301,7 @@
         <v>43870</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1391,7 +1391,7 @@
         <v>44266</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1477,7 +1477,7 @@
         <v>43506</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1562,7 +1562,7 @@
         <v>43621</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1647,7 +1647,7 @@
         <v>43621</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1732,7 +1732,7 @@
         <v>43819</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1821,7 +1821,7 @@
         <v>43858</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>43858</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2000,7 +2000,7 @@
         <v>44809</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>45014</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         <v>45058</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2267,7 +2267,7 @@
         <v>43332</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2324,7 +2324,7 @@
         <v>43347</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2381,7 +2381,7 @@
         <v>43369</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
         <v>43390</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>43397</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         <v>43438</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2609,7 +2609,7 @@
         <v>43438</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2666,7 +2666,7 @@
         <v>43440</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2723,7 +2723,7 @@
         <v>43446</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2780,7 +2780,7 @@
         <v>43446</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2837,7 +2837,7 @@
         <v>43455</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2894,7 +2894,7 @@
         <v>43468</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2951,7 +2951,7 @@
         <v>43480</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3008,7 +3008,7 @@
         <v>43486</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3065,7 +3065,7 @@
         <v>43487</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
         <v>43493</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3179,7 +3179,7 @@
         <v>43503</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3236,7 +3236,7 @@
         <v>43509</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3298,7 +3298,7 @@
         <v>43523</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
         <v>43524</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3412,7 +3412,7 @@
         <v>43552</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3469,7 +3469,7 @@
         <v>43567</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3526,7 +3526,7 @@
         <v>43606</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3583,7 +3583,7 @@
         <v>43606</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3640,7 +3640,7 @@
         <v>43621</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3697,7 +3697,7 @@
         <v>43621</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3754,7 +3754,7 @@
         <v>43621</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3811,7 +3811,7 @@
         <v>43621</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3868,7 +3868,7 @@
         <v>43621</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3925,7 +3925,7 @@
         <v>43636</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3982,7 +3982,7 @@
         <v>43642</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>43649</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         <v>43652</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4173,7 +4173,7 @@
         <v>43788</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4230,7 +4230,7 @@
         <v>43788</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4287,7 +4287,7 @@
         <v>43804</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4344,7 +4344,7 @@
         <v>43840</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>43840</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4458,7 +4458,7 @@
         <v>43858</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>43858</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4582,7 +4582,7 @@
         <v>43858</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4639,7 +4639,7 @@
         <v>43958</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4696,7 +4696,7 @@
         <v>44006</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4753,7 +4753,7 @@
         <v>44112</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4810,7 +4810,7 @@
         <v>44141</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4867,7 +4867,7 @@
         <v>44155</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         <v>44169</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4981,7 +4981,7 @@
         <v>44172</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5038,7 +5038,7 @@
         <v>44182</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5095,7 +5095,7 @@
         <v>44236</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5152,7 +5152,7 @@
         <v>44250</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
         <v>44258</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>44319</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5323,7 +5323,7 @@
         <v>44326</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5380,7 +5380,7 @@
         <v>44326</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5437,7 +5437,7 @@
         <v>44386</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5494,7 +5494,7 @@
         <v>44439</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
         <v>44439</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         <v>44441</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5665,7 +5665,7 @@
         <v>44445</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5722,7 +5722,7 @@
         <v>44448</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         <v>44448</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5836,7 +5836,7 @@
         <v>44448</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5893,7 +5893,7 @@
         <v>44448</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5950,7 +5950,7 @@
         <v>44448</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6007,7 +6007,7 @@
         <v>44448</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6064,7 +6064,7 @@
         <v>44453</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6126,7 +6126,7 @@
         <v>44476</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6183,7 +6183,7 @@
         <v>44480</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6240,7 +6240,7 @@
         <v>44529</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6297,7 +6297,7 @@
         <v>44531</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6354,7 +6354,7 @@
         <v>44544</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6411,7 +6411,7 @@
         <v>44550</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>44609</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         <v>44610</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6582,7 +6582,7 @@
         <v>44655</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>44657</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6696,7 +6696,7 @@
         <v>44694</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
         <v>44790</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>44791</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>44792</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6924,7 +6924,7 @@
         <v>44827</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6981,7 +6981,7 @@
         <v>44862</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7038,7 +7038,7 @@
         <v>44872</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7095,7 +7095,7 @@
         <v>44881</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7152,7 +7152,7 @@
         <v>44904</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7209,7 +7209,7 @@
         <v>44931</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7266,7 +7266,7 @@
         <v>45002</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7323,7 +7323,7 @@
         <v>45014</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7380,7 +7380,7 @@
         <v>45014</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7437,7 +7437,7 @@
         <v>45014</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7494,7 +7494,7 @@
         <v>45014</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7551,7 +7551,7 @@
         <v>45014</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7608,7 +7608,7 @@
         <v>45014</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7665,7 +7665,7 @@
         <v>45020</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7722,7 +7722,7 @@
         <v>45020</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7779,7 +7779,7 @@
         <v>45020</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7836,7 +7836,7 @@
         <v>45044</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7893,7 +7893,7 @@
         <v>45045</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7950,7 +7950,7 @@
         <v>45054</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8007,7 +8007,7 @@
         <v>45054</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8064,7 +8064,7 @@
         <v>45058</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8121,7 +8121,7 @@
         <v>45130</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>

--- a/Översikt ORUST.xlsx
+++ b/Översikt ORUST.xlsx
@@ -572,7 +572,7 @@
         <v>44098</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>44112</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
         <v>44476</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -855,7 +855,7 @@
         <v>44559</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         <v>44546</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1034,7 +1034,7 @@
         <v>45014</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         <v>43493</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1215,7 +1215,7 @@
         <v>43514</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1301,7 +1301,7 @@
         <v>43870</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1391,7 +1391,7 @@
         <v>44266</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1477,7 +1477,7 @@
         <v>43506</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1562,7 +1562,7 @@
         <v>43621</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1647,7 +1647,7 @@
         <v>43621</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1732,7 +1732,7 @@
         <v>43819</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1821,7 +1821,7 @@
         <v>43858</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>43858</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2000,7 +2000,7 @@
         <v>44809</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>45014</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         <v>45058</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2267,7 +2267,7 @@
         <v>43332</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2324,7 +2324,7 @@
         <v>43347</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2381,7 +2381,7 @@
         <v>43369</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
         <v>43390</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>43397</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         <v>43438</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2609,7 +2609,7 @@
         <v>43438</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2666,7 +2666,7 @@
         <v>43440</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2723,7 +2723,7 @@
         <v>43446</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2780,7 +2780,7 @@
         <v>43446</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2837,7 +2837,7 @@
         <v>43455</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2894,7 +2894,7 @@
         <v>43468</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2951,7 +2951,7 @@
         <v>43480</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3008,7 +3008,7 @@
         <v>43486</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3065,7 +3065,7 @@
         <v>43487</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
         <v>43493</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3179,7 +3179,7 @@
         <v>43503</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3236,7 +3236,7 @@
         <v>43509</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3298,7 +3298,7 @@
         <v>43523</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
         <v>43524</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3412,7 +3412,7 @@
         <v>43552</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3469,7 +3469,7 @@
         <v>43567</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3526,7 +3526,7 @@
         <v>43606</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3583,7 +3583,7 @@
         <v>43606</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3640,7 +3640,7 @@
         <v>43621</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3697,7 +3697,7 @@
         <v>43621</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3754,7 +3754,7 @@
         <v>43621</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3811,7 +3811,7 @@
         <v>43621</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3868,7 +3868,7 @@
         <v>43621</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3925,7 +3925,7 @@
         <v>43636</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3982,7 +3982,7 @@
         <v>43642</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>43649</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         <v>43652</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4173,7 +4173,7 @@
         <v>43788</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4230,7 +4230,7 @@
         <v>43788</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4287,7 +4287,7 @@
         <v>43804</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4344,7 +4344,7 @@
         <v>43840</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>43840</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4458,7 +4458,7 @@
         <v>43858</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>43858</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4582,7 +4582,7 @@
         <v>43858</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4639,7 +4639,7 @@
         <v>43958</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4696,7 +4696,7 @@
         <v>44006</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4753,7 +4753,7 @@
         <v>44112</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4810,7 +4810,7 @@
         <v>44141</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4867,7 +4867,7 @@
         <v>44155</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         <v>44169</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4981,7 +4981,7 @@
         <v>44172</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5038,7 +5038,7 @@
         <v>44182</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5095,7 +5095,7 @@
         <v>44236</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5152,7 +5152,7 @@
         <v>44250</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
         <v>44258</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>44319</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5323,7 +5323,7 @@
         <v>44326</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5380,7 +5380,7 @@
         <v>44326</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5437,7 +5437,7 @@
         <v>44386</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5494,7 +5494,7 @@
         <v>44439</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
         <v>44439</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         <v>44441</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5665,7 +5665,7 @@
         <v>44445</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5722,7 +5722,7 @@
         <v>44448</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         <v>44448</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5836,7 +5836,7 @@
         <v>44448</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5893,7 +5893,7 @@
         <v>44448</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5950,7 +5950,7 @@
         <v>44448</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6007,7 +6007,7 @@
         <v>44448</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6064,7 +6064,7 @@
         <v>44453</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6126,7 +6126,7 @@
         <v>44476</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6183,7 +6183,7 @@
         <v>44480</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6240,7 +6240,7 @@
         <v>44529</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6297,7 +6297,7 @@
         <v>44531</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6354,7 +6354,7 @@
         <v>44544</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6411,7 +6411,7 @@
         <v>44550</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>44609</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         <v>44610</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6582,7 +6582,7 @@
         <v>44655</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>44657</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6696,7 +6696,7 @@
         <v>44694</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
         <v>44790</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>44791</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>44792</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6924,7 +6924,7 @@
         <v>44827</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6981,7 +6981,7 @@
         <v>44862</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7038,7 +7038,7 @@
         <v>44872</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7095,7 +7095,7 @@
         <v>44881</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7152,7 +7152,7 @@
         <v>44904</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7209,7 +7209,7 @@
         <v>44931</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7266,7 +7266,7 @@
         <v>45002</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7323,7 +7323,7 @@
         <v>45014</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7380,7 +7380,7 @@
         <v>45014</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7437,7 +7437,7 @@
         <v>45014</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7494,7 +7494,7 @@
         <v>45014</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7551,7 +7551,7 @@
         <v>45014</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7608,7 +7608,7 @@
         <v>45014</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7665,7 +7665,7 @@
         <v>45020</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7722,7 +7722,7 @@
         <v>45020</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7779,7 +7779,7 @@
         <v>45020</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7836,7 +7836,7 @@
         <v>45044</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7893,7 +7893,7 @@
         <v>45045</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7950,7 +7950,7 @@
         <v>45054</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8007,7 +8007,7 @@
         <v>45054</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8064,7 +8064,7 @@
         <v>45058</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8121,7 +8121,7 @@
         <v>45130</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>

--- a/Översikt ORUST.xlsx
+++ b/Översikt ORUST.xlsx
@@ -572,7 +572,7 @@
         <v>44098</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>44112</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
         <v>44476</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -855,7 +855,7 @@
         <v>44559</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         <v>44546</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1034,7 +1034,7 @@
         <v>45014</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         <v>43493</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1215,7 +1215,7 @@
         <v>43514</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1301,7 +1301,7 @@
         <v>43870</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1391,7 +1391,7 @@
         <v>44266</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1477,7 +1477,7 @@
         <v>43506</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1562,7 +1562,7 @@
         <v>43621</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1647,7 +1647,7 @@
         <v>43621</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1732,7 +1732,7 @@
         <v>43819</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1821,7 +1821,7 @@
         <v>43858</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>43858</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2000,7 +2000,7 @@
         <v>44809</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>45014</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         <v>45058</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2267,7 +2267,7 @@
         <v>43332</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2324,7 +2324,7 @@
         <v>43347</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2381,7 +2381,7 @@
         <v>43369</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
         <v>43390</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>43397</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         <v>43438</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2609,7 +2609,7 @@
         <v>43438</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2666,7 +2666,7 @@
         <v>43440</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2723,7 +2723,7 @@
         <v>43446</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2780,7 +2780,7 @@
         <v>43446</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2837,7 +2837,7 @@
         <v>43455</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2894,7 +2894,7 @@
         <v>43468</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2951,7 +2951,7 @@
         <v>43480</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3008,7 +3008,7 @@
         <v>43486</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3065,7 +3065,7 @@
         <v>43487</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
         <v>43493</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3179,7 +3179,7 @@
         <v>43503</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3236,7 +3236,7 @@
         <v>43509</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3298,7 +3298,7 @@
         <v>43523</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
         <v>43524</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3412,7 +3412,7 @@
         <v>43552</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3469,7 +3469,7 @@
         <v>43567</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3526,7 +3526,7 @@
         <v>43606</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3583,7 +3583,7 @@
         <v>43606</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3640,7 +3640,7 @@
         <v>43621</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3697,7 +3697,7 @@
         <v>43621</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3754,7 +3754,7 @@
         <v>43621</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3811,7 +3811,7 @@
         <v>43621</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3868,7 +3868,7 @@
         <v>43621</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3925,7 +3925,7 @@
         <v>43636</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3982,7 +3982,7 @@
         <v>43642</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>43649</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         <v>43652</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4173,7 +4173,7 @@
         <v>43788</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4230,7 +4230,7 @@
         <v>43788</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4287,7 +4287,7 @@
         <v>43804</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4344,7 +4344,7 @@
         <v>43840</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>43840</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4458,7 +4458,7 @@
         <v>43858</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>43858</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4582,7 +4582,7 @@
         <v>43858</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4639,7 +4639,7 @@
         <v>43958</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4696,7 +4696,7 @@
         <v>44006</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4753,7 +4753,7 @@
         <v>44112</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4810,7 +4810,7 @@
         <v>44141</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4867,7 +4867,7 @@
         <v>44155</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         <v>44169</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4981,7 +4981,7 @@
         <v>44172</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5038,7 +5038,7 @@
         <v>44182</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5095,7 +5095,7 @@
         <v>44236</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5152,7 +5152,7 @@
         <v>44250</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
         <v>44258</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>44319</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5323,7 +5323,7 @@
         <v>44326</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5380,7 +5380,7 @@
         <v>44326</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5437,7 +5437,7 @@
         <v>44386</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5494,7 +5494,7 @@
         <v>44439</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
         <v>44439</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         <v>44441</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5665,7 +5665,7 @@
         <v>44445</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5722,7 +5722,7 @@
         <v>44448</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         <v>44448</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5836,7 +5836,7 @@
         <v>44448</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5893,7 +5893,7 @@
         <v>44448</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5950,7 +5950,7 @@
         <v>44448</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6007,7 +6007,7 @@
         <v>44448</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6064,7 +6064,7 @@
         <v>44453</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6126,7 +6126,7 @@
         <v>44476</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6183,7 +6183,7 @@
         <v>44480</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6240,7 +6240,7 @@
         <v>44529</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6297,7 +6297,7 @@
         <v>44531</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6354,7 +6354,7 @@
         <v>44544</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6411,7 +6411,7 @@
         <v>44550</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>44609</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         <v>44610</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6582,7 +6582,7 @@
         <v>44655</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>44657</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6696,7 +6696,7 @@
         <v>44694</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
         <v>44790</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>44791</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>44792</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6924,7 +6924,7 @@
         <v>44827</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6981,7 +6981,7 @@
         <v>44862</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7038,7 +7038,7 @@
         <v>44872</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7095,7 +7095,7 @@
         <v>44881</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7152,7 +7152,7 @@
         <v>44904</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7209,7 +7209,7 @@
         <v>44931</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7266,7 +7266,7 @@
         <v>45002</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7323,7 +7323,7 @@
         <v>45014</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7380,7 +7380,7 @@
         <v>45014</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7437,7 +7437,7 @@
         <v>45014</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7494,7 +7494,7 @@
         <v>45014</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7551,7 +7551,7 @@
         <v>45014</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7608,7 +7608,7 @@
         <v>45014</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7665,7 +7665,7 @@
         <v>45020</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7722,7 +7722,7 @@
         <v>45020</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7779,7 +7779,7 @@
         <v>45020</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7836,7 +7836,7 @@
         <v>45044</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7893,7 +7893,7 @@
         <v>45045</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7950,7 +7950,7 @@
         <v>45054</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8007,7 +8007,7 @@
         <v>45054</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8064,7 +8064,7 @@
         <v>45058</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8121,7 +8121,7 @@
         <v>45130</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>

--- a/Översikt ORUST.xlsx
+++ b/Översikt ORUST.xlsx
@@ -572,7 +572,7 @@
         <v>44098</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>44112</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
         <v>44476</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -855,7 +855,7 @@
         <v>44559</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         <v>44546</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1034,7 +1034,7 @@
         <v>45014</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         <v>43493</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1215,7 +1215,7 @@
         <v>43514</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1301,7 +1301,7 @@
         <v>43870</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1391,7 +1391,7 @@
         <v>44266</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1477,7 +1477,7 @@
         <v>43506</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1562,7 +1562,7 @@
         <v>43621</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1647,7 +1647,7 @@
         <v>43621</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1732,7 +1732,7 @@
         <v>43819</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1821,7 +1821,7 @@
         <v>43858</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>43858</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2000,7 +2000,7 @@
         <v>44809</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>45014</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         <v>45058</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2267,7 +2267,7 @@
         <v>43332</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2324,7 +2324,7 @@
         <v>43347</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2381,7 +2381,7 @@
         <v>43369</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
         <v>43390</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>43397</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         <v>43438</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2609,7 +2609,7 @@
         <v>43438</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2666,7 +2666,7 @@
         <v>43440</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2723,7 +2723,7 @@
         <v>43446</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2780,7 +2780,7 @@
         <v>43446</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2837,7 +2837,7 @@
         <v>43455</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2894,7 +2894,7 @@
         <v>43468</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2951,7 +2951,7 @@
         <v>43480</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3008,7 +3008,7 @@
         <v>43486</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3065,7 +3065,7 @@
         <v>43487</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
         <v>43493</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3179,7 +3179,7 @@
         <v>43503</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3236,7 +3236,7 @@
         <v>43509</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3298,7 +3298,7 @@
         <v>43523</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
         <v>43524</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3412,7 +3412,7 @@
         <v>43552</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3469,7 +3469,7 @@
         <v>43567</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3526,7 +3526,7 @@
         <v>43606</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3583,7 +3583,7 @@
         <v>43606</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3640,7 +3640,7 @@
         <v>43621</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3697,7 +3697,7 @@
         <v>43621</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3754,7 +3754,7 @@
         <v>43621</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3811,7 +3811,7 @@
         <v>43621</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3868,7 +3868,7 @@
         <v>43621</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3925,7 +3925,7 @@
         <v>43636</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3982,7 +3982,7 @@
         <v>43642</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>43649</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         <v>43652</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4173,7 +4173,7 @@
         <v>43788</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4230,7 +4230,7 @@
         <v>43788</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4287,7 +4287,7 @@
         <v>43804</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4344,7 +4344,7 @@
         <v>43840</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>43840</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4458,7 +4458,7 @@
         <v>43858</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>43858</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4582,7 +4582,7 @@
         <v>43858</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4639,7 +4639,7 @@
         <v>43958</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4696,7 +4696,7 @@
         <v>44006</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4753,7 +4753,7 @@
         <v>44112</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4810,7 +4810,7 @@
         <v>44141</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4867,7 +4867,7 @@
         <v>44155</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         <v>44169</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4981,7 +4981,7 @@
         <v>44172</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5038,7 +5038,7 @@
         <v>44182</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5095,7 +5095,7 @@
         <v>44236</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5152,7 +5152,7 @@
         <v>44250</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
         <v>44258</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>44319</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5323,7 +5323,7 @@
         <v>44326</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5380,7 +5380,7 @@
         <v>44326</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5437,7 +5437,7 @@
         <v>44386</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5494,7 +5494,7 @@
         <v>44439</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
         <v>44439</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         <v>44441</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5665,7 +5665,7 @@
         <v>44445</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5722,7 +5722,7 @@
         <v>44448</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         <v>44448</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5836,7 +5836,7 @@
         <v>44448</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5893,7 +5893,7 @@
         <v>44448</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5950,7 +5950,7 @@
         <v>44448</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6007,7 +6007,7 @@
         <v>44448</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6064,7 +6064,7 @@
         <v>44453</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6126,7 +6126,7 @@
         <v>44476</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6183,7 +6183,7 @@
         <v>44480</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6240,7 +6240,7 @@
         <v>44529</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6297,7 +6297,7 @@
         <v>44531</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6354,7 +6354,7 @@
         <v>44544</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6411,7 +6411,7 @@
         <v>44550</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>44609</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         <v>44610</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6582,7 +6582,7 @@
         <v>44655</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>44657</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6696,7 +6696,7 @@
         <v>44694</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
         <v>44790</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>44791</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>44792</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6924,7 +6924,7 @@
         <v>44827</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6981,7 +6981,7 @@
         <v>44862</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7038,7 +7038,7 @@
         <v>44872</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7095,7 +7095,7 @@
         <v>44881</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7152,7 +7152,7 @@
         <v>44904</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7209,7 +7209,7 @@
         <v>44931</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7266,7 +7266,7 @@
         <v>45002</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7323,7 +7323,7 @@
         <v>45014</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7380,7 +7380,7 @@
         <v>45014</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7437,7 +7437,7 @@
         <v>45014</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7494,7 +7494,7 @@
         <v>45014</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7551,7 +7551,7 @@
         <v>45014</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7608,7 +7608,7 @@
         <v>45014</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7665,7 +7665,7 @@
         <v>45020</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7722,7 +7722,7 @@
         <v>45020</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7779,7 +7779,7 @@
         <v>45020</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7836,7 +7836,7 @@
         <v>45044</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7893,7 +7893,7 @@
         <v>45045</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7950,7 +7950,7 @@
         <v>45054</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8007,7 +8007,7 @@
         <v>45054</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8064,7 +8064,7 @@
         <v>45058</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8121,7 +8121,7 @@
         <v>45130</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>

--- a/Översikt ORUST.xlsx
+++ b/Översikt ORUST.xlsx
@@ -572,7 +572,7 @@
         <v>44098</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>44112</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
         <v>44476</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -855,7 +855,7 @@
         <v>44559</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         <v>44546</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1034,7 +1034,7 @@
         <v>45014</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         <v>43493</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1215,7 +1215,7 @@
         <v>43514</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1301,7 +1301,7 @@
         <v>43870</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1391,7 +1391,7 @@
         <v>44266</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1477,7 +1477,7 @@
         <v>43506</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1562,7 +1562,7 @@
         <v>43621</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1647,7 +1647,7 @@
         <v>43621</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1732,7 +1732,7 @@
         <v>43819</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1821,7 +1821,7 @@
         <v>43858</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>43858</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2000,7 +2000,7 @@
         <v>44809</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>45014</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         <v>45058</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2267,7 +2267,7 @@
         <v>43332</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2324,7 +2324,7 @@
         <v>43347</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2381,7 +2381,7 @@
         <v>43369</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
         <v>43390</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>43397</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         <v>43438</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2609,7 +2609,7 @@
         <v>43438</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2666,7 +2666,7 @@
         <v>43440</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2723,7 +2723,7 @@
         <v>43446</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2780,7 +2780,7 @@
         <v>43446</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2837,7 +2837,7 @@
         <v>43455</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2894,7 +2894,7 @@
         <v>43468</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2951,7 +2951,7 @@
         <v>43480</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3008,7 +3008,7 @@
         <v>43486</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3065,7 +3065,7 @@
         <v>43487</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
         <v>43493</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3179,7 +3179,7 @@
         <v>43503</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3236,7 +3236,7 @@
         <v>43509</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3298,7 +3298,7 @@
         <v>43523</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
         <v>43524</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3412,7 +3412,7 @@
         <v>43552</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3469,7 +3469,7 @@
         <v>43567</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3526,7 +3526,7 @@
         <v>43606</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3583,7 +3583,7 @@
         <v>43606</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3640,7 +3640,7 @@
         <v>43621</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3697,7 +3697,7 @@
         <v>43621</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3754,7 +3754,7 @@
         <v>43621</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3811,7 +3811,7 @@
         <v>43621</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3868,7 +3868,7 @@
         <v>43621</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3925,7 +3925,7 @@
         <v>43636</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3982,7 +3982,7 @@
         <v>43642</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>43649</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         <v>43652</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4173,7 +4173,7 @@
         <v>43788</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4230,7 +4230,7 @@
         <v>43788</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4287,7 +4287,7 @@
         <v>43804</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4344,7 +4344,7 @@
         <v>43840</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>43840</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4458,7 +4458,7 @@
         <v>43858</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>43858</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4582,7 +4582,7 @@
         <v>43858</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4639,7 +4639,7 @@
         <v>43958</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4696,7 +4696,7 @@
         <v>44006</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4753,7 +4753,7 @@
         <v>44112</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4810,7 +4810,7 @@
         <v>44141</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4867,7 +4867,7 @@
         <v>44155</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         <v>44169</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4981,7 +4981,7 @@
         <v>44172</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5038,7 +5038,7 @@
         <v>44182</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5095,7 +5095,7 @@
         <v>44236</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5152,7 +5152,7 @@
         <v>44250</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
         <v>44258</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>44319</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5323,7 +5323,7 @@
         <v>44326</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5380,7 +5380,7 @@
         <v>44326</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5437,7 +5437,7 @@
         <v>44386</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5494,7 +5494,7 @@
         <v>44439</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
         <v>44439</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         <v>44441</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5665,7 +5665,7 @@
         <v>44445</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5722,7 +5722,7 @@
         <v>44448</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         <v>44448</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5836,7 +5836,7 @@
         <v>44448</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5893,7 +5893,7 @@
         <v>44448</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5950,7 +5950,7 @@
         <v>44448</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6007,7 +6007,7 @@
         <v>44448</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6064,7 +6064,7 @@
         <v>44453</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6126,7 +6126,7 @@
         <v>44476</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6183,7 +6183,7 @@
         <v>44480</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6240,7 +6240,7 @@
         <v>44529</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6297,7 +6297,7 @@
         <v>44531</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6354,7 +6354,7 @@
         <v>44544</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6411,7 +6411,7 @@
         <v>44550</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>44609</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         <v>44610</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6582,7 +6582,7 @@
         <v>44655</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>44657</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6696,7 +6696,7 @@
         <v>44694</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
         <v>44790</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>44791</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>44792</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6924,7 +6924,7 @@
         <v>44827</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6981,7 +6981,7 @@
         <v>44862</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7038,7 +7038,7 @@
         <v>44872</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7095,7 +7095,7 @@
         <v>44881</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7152,7 +7152,7 @@
         <v>44904</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7209,7 +7209,7 @@
         <v>44931</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7266,7 +7266,7 @@
         <v>45002</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7323,7 +7323,7 @@
         <v>45014</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7380,7 +7380,7 @@
         <v>45014</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7437,7 +7437,7 @@
         <v>45014</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7494,7 +7494,7 @@
         <v>45014</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7551,7 +7551,7 @@
         <v>45014</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7608,7 +7608,7 @@
         <v>45014</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7665,7 +7665,7 @@
         <v>45020</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7722,7 +7722,7 @@
         <v>45020</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7779,7 +7779,7 @@
         <v>45020</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7836,7 +7836,7 @@
         <v>45044</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7893,7 +7893,7 @@
         <v>45045</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7950,7 +7950,7 @@
         <v>45054</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8007,7 +8007,7 @@
         <v>45054</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8064,7 +8064,7 @@
         <v>45058</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8121,7 +8121,7 @@
         <v>45130</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>

--- a/Översikt ORUST.xlsx
+++ b/Översikt ORUST.xlsx
@@ -572,7 +572,7 @@
         <v>44098</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>44112</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
         <v>44476</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -855,7 +855,7 @@
         <v>44559</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         <v>44546</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1034,7 +1034,7 @@
         <v>45014</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         <v>43493</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1215,7 +1215,7 @@
         <v>43514</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1301,7 +1301,7 @@
         <v>43870</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1391,7 +1391,7 @@
         <v>44266</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1477,7 +1477,7 @@
         <v>43506</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1562,7 +1562,7 @@
         <v>43621</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1647,7 +1647,7 @@
         <v>43621</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1732,7 +1732,7 @@
         <v>43819</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1821,7 +1821,7 @@
         <v>43858</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>43858</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2000,7 +2000,7 @@
         <v>44809</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>45014</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         <v>45058</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2267,7 +2267,7 @@
         <v>43332</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2324,7 +2324,7 @@
         <v>43347</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2381,7 +2381,7 @@
         <v>43369</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
         <v>43390</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>43397</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         <v>43438</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2609,7 +2609,7 @@
         <v>43438</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2666,7 +2666,7 @@
         <v>43440</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2723,7 +2723,7 @@
         <v>43446</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2780,7 +2780,7 @@
         <v>43446</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2837,7 +2837,7 @@
         <v>43455</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2894,7 +2894,7 @@
         <v>43468</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2951,7 +2951,7 @@
         <v>43480</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3008,7 +3008,7 @@
         <v>43486</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3065,7 +3065,7 @@
         <v>43487</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
         <v>43493</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3179,7 +3179,7 @@
         <v>43503</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3236,7 +3236,7 @@
         <v>43509</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3298,7 +3298,7 @@
         <v>43523</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
         <v>43524</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3412,7 +3412,7 @@
         <v>43552</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3469,7 +3469,7 @@
         <v>43567</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3526,7 +3526,7 @@
         <v>43606</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3583,7 +3583,7 @@
         <v>43606</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3640,7 +3640,7 @@
         <v>43621</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3697,7 +3697,7 @@
         <v>43621</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3754,7 +3754,7 @@
         <v>43621</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3811,7 +3811,7 @@
         <v>43621</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3868,7 +3868,7 @@
         <v>43621</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3925,7 +3925,7 @@
         <v>43636</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3982,7 +3982,7 @@
         <v>43642</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>43649</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         <v>43652</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4173,7 +4173,7 @@
         <v>43788</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4230,7 +4230,7 @@
         <v>43788</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4287,7 +4287,7 @@
         <v>43804</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4344,7 +4344,7 @@
         <v>43840</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>43840</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4458,7 +4458,7 @@
         <v>43858</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>43858</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4582,7 +4582,7 @@
         <v>43858</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4639,7 +4639,7 @@
         <v>43958</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4696,7 +4696,7 @@
         <v>44006</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4753,7 +4753,7 @@
         <v>44112</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4810,7 +4810,7 @@
         <v>44141</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4867,7 +4867,7 @@
         <v>44155</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         <v>44169</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4981,7 +4981,7 @@
         <v>44172</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5038,7 +5038,7 @@
         <v>44182</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5095,7 +5095,7 @@
         <v>44236</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5152,7 +5152,7 @@
         <v>44250</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
         <v>44258</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>44319</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5323,7 +5323,7 @@
         <v>44326</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5380,7 +5380,7 @@
         <v>44326</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5437,7 +5437,7 @@
         <v>44386</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5494,7 +5494,7 @@
         <v>44439</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
         <v>44439</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         <v>44441</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5665,7 +5665,7 @@
         <v>44445</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5722,7 +5722,7 @@
         <v>44448</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         <v>44448</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5836,7 +5836,7 @@
         <v>44448</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5893,7 +5893,7 @@
         <v>44448</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5950,7 +5950,7 @@
         <v>44448</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6007,7 +6007,7 @@
         <v>44448</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6064,7 +6064,7 @@
         <v>44453</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6126,7 +6126,7 @@
         <v>44476</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6183,7 +6183,7 @@
         <v>44480</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6240,7 +6240,7 @@
         <v>44529</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6297,7 +6297,7 @@
         <v>44531</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6354,7 +6354,7 @@
         <v>44544</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6411,7 +6411,7 @@
         <v>44550</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>44609</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         <v>44610</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6582,7 +6582,7 @@
         <v>44655</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>44657</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6696,7 +6696,7 @@
         <v>44694</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
         <v>44790</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>44791</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>44792</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6924,7 +6924,7 @@
         <v>44827</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6981,7 +6981,7 @@
         <v>44862</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7038,7 +7038,7 @@
         <v>44872</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7095,7 +7095,7 @@
         <v>44881</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7152,7 +7152,7 @@
         <v>44904</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7209,7 +7209,7 @@
         <v>44931</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7266,7 +7266,7 @@
         <v>45002</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7323,7 +7323,7 @@
         <v>45014</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7380,7 +7380,7 @@
         <v>45014</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7437,7 +7437,7 @@
         <v>45014</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7494,7 +7494,7 @@
         <v>45014</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7551,7 +7551,7 @@
         <v>45014</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7608,7 +7608,7 @@
         <v>45014</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7665,7 +7665,7 @@
         <v>45020</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7722,7 +7722,7 @@
         <v>45020</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7779,7 +7779,7 @@
         <v>45020</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7836,7 +7836,7 @@
         <v>45044</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7893,7 +7893,7 @@
         <v>45045</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7950,7 +7950,7 @@
         <v>45054</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8007,7 +8007,7 @@
         <v>45054</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8064,7 +8064,7 @@
         <v>45058</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8121,7 +8121,7 @@
         <v>45130</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>

--- a/Översikt ORUST.xlsx
+++ b/Översikt ORUST.xlsx
@@ -572,7 +572,7 @@
         <v>44098</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>44112</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
         <v>44476</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -855,7 +855,7 @@
         <v>44559</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         <v>44546</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1034,7 +1034,7 @@
         <v>45014</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         <v>43493</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1215,7 +1215,7 @@
         <v>43514</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1301,7 +1301,7 @@
         <v>43870</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1391,7 +1391,7 @@
         <v>44266</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1477,7 +1477,7 @@
         <v>43506</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1562,7 +1562,7 @@
         <v>43621</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1647,7 +1647,7 @@
         <v>43621</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1732,7 +1732,7 @@
         <v>43819</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1821,7 +1821,7 @@
         <v>43858</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>43858</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2000,7 +2000,7 @@
         <v>44809</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>45014</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         <v>45058</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2267,7 +2267,7 @@
         <v>43332</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2324,7 +2324,7 @@
         <v>43347</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2381,7 +2381,7 @@
         <v>43369</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
         <v>43390</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>43397</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         <v>43438</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2609,7 +2609,7 @@
         <v>43438</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2666,7 +2666,7 @@
         <v>43440</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2723,7 +2723,7 @@
         <v>43446</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2780,7 +2780,7 @@
         <v>43446</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2837,7 +2837,7 @@
         <v>43455</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2894,7 +2894,7 @@
         <v>43468</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2951,7 +2951,7 @@
         <v>43480</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3008,7 +3008,7 @@
         <v>43486</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3065,7 +3065,7 @@
         <v>43487</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
         <v>43493</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3179,7 +3179,7 @@
         <v>43503</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3236,7 +3236,7 @@
         <v>43509</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3298,7 +3298,7 @@
         <v>43523</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
         <v>43524</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3412,7 +3412,7 @@
         <v>43552</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3469,7 +3469,7 @@
         <v>43567</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3526,7 +3526,7 @@
         <v>43606</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3583,7 +3583,7 @@
         <v>43606</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3640,7 +3640,7 @@
         <v>43621</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3697,7 +3697,7 @@
         <v>43621</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3754,7 +3754,7 @@
         <v>43621</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3811,7 +3811,7 @@
         <v>43621</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3868,7 +3868,7 @@
         <v>43621</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3925,7 +3925,7 @@
         <v>43636</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3982,7 +3982,7 @@
         <v>43642</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>43649</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         <v>43652</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4173,7 +4173,7 @@
         <v>43788</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4230,7 +4230,7 @@
         <v>43788</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4287,7 +4287,7 @@
         <v>43804</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4344,7 +4344,7 @@
         <v>43840</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>43840</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4458,7 +4458,7 @@
         <v>43858</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>43858</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4582,7 +4582,7 @@
         <v>43858</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4639,7 +4639,7 @@
         <v>43958</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4696,7 +4696,7 @@
         <v>44006</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4753,7 +4753,7 @@
         <v>44112</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4810,7 +4810,7 @@
         <v>44141</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4867,7 +4867,7 @@
         <v>44155</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         <v>44169</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4981,7 +4981,7 @@
         <v>44172</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5038,7 +5038,7 @@
         <v>44182</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5095,7 +5095,7 @@
         <v>44236</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5152,7 +5152,7 @@
         <v>44250</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
         <v>44258</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>44319</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5323,7 +5323,7 @@
         <v>44326</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5380,7 +5380,7 @@
         <v>44326</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5437,7 +5437,7 @@
         <v>44386</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5494,7 +5494,7 @@
         <v>44439</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
         <v>44439</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         <v>44441</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5665,7 +5665,7 @@
         <v>44445</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5722,7 +5722,7 @@
         <v>44448</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         <v>44448</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5836,7 +5836,7 @@
         <v>44448</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5893,7 +5893,7 @@
         <v>44448</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5950,7 +5950,7 @@
         <v>44448</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6007,7 +6007,7 @@
         <v>44448</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6064,7 +6064,7 @@
         <v>44453</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6126,7 +6126,7 @@
         <v>44476</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6183,7 +6183,7 @@
         <v>44480</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6240,7 +6240,7 @@
         <v>44529</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6297,7 +6297,7 @@
         <v>44531</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6354,7 +6354,7 @@
         <v>44544</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6411,7 +6411,7 @@
         <v>44550</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>44609</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         <v>44610</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6582,7 +6582,7 @@
         <v>44655</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>44657</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6696,7 +6696,7 @@
         <v>44694</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
         <v>44790</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>44791</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>44792</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6924,7 +6924,7 @@
         <v>44827</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6981,7 +6981,7 @@
         <v>44862</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7038,7 +7038,7 @@
         <v>44872</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7095,7 +7095,7 @@
         <v>44881</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7152,7 +7152,7 @@
         <v>44904</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7209,7 +7209,7 @@
         <v>44931</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7266,7 +7266,7 @@
         <v>45002</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7323,7 +7323,7 @@
         <v>45014</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7380,7 +7380,7 @@
         <v>45014</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7437,7 +7437,7 @@
         <v>45014</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7494,7 +7494,7 @@
         <v>45014</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7551,7 +7551,7 @@
         <v>45014</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7608,7 +7608,7 @@
         <v>45014</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7665,7 +7665,7 @@
         <v>45020</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7722,7 +7722,7 @@
         <v>45020</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7779,7 +7779,7 @@
         <v>45020</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7836,7 +7836,7 @@
         <v>45044</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7893,7 +7893,7 @@
         <v>45045</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7950,7 +7950,7 @@
         <v>45054</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8007,7 +8007,7 @@
         <v>45054</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8064,7 +8064,7 @@
         <v>45058</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8121,7 +8121,7 @@
         <v>45130</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>

--- a/Översikt ORUST.xlsx
+++ b/Översikt ORUST.xlsx
@@ -572,7 +572,7 @@
         <v>44098</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -630,31 +630,31 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/artfynd/A 47557-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/artfynd/A 47557-2020.xlsx", "A 47557-2020")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/kartor/A 47557-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/kartor/A 47557-2020.png", "A 47557-2020")</f>
         <v/>
       </c>
       <c r="U2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/knärot/A 47557-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/knärot/A 47557-2020.png", "A 47557-2020")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/klagomål/A 47557-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/klagomål/A 47557-2020.docx", "A 47557-2020")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/klagomålsmail/A 47557-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/klagomålsmail/A 47557-2020.docx", "A 47557-2020")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/tillsyn/A 47557-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/tillsyn/A 47557-2020.docx", "A 47557-2020")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/tillsynsmail/A 47557-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/tillsynsmail/A 47557-2020.docx", "A 47557-2020")</f>
         <v/>
       </c>
     </row>
@@ -668,7 +668,7 @@
         <v>44112</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -728,27 +728,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/artfynd/A 51075-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/artfynd/A 51075-2020.xlsx", "A 51075-2020")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/kartor/A 51075-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/kartor/A 51075-2020.png", "A 51075-2020")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/klagomål/A 51075-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/klagomål/A 51075-2020.docx", "A 51075-2020")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/klagomålsmail/A 51075-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/klagomålsmail/A 51075-2020.docx", "A 51075-2020")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/tillsyn/A 51075-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/tillsyn/A 51075-2020.docx", "A 51075-2020")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/tillsynsmail/A 51075-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/tillsynsmail/A 51075-2020.docx", "A 51075-2020")</f>
         <v/>
       </c>
     </row>
@@ -762,7 +762,7 @@
         <v>44476</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -817,31 +817,31 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/artfynd/A 55776-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/artfynd/A 55776-2021.xlsx", "A 55776-2021")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/kartor/A 55776-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/kartor/A 55776-2021.png", "A 55776-2021")</f>
         <v/>
       </c>
       <c r="U4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/knärot/A 55776-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/knärot/A 55776-2021.png", "A 55776-2021")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/klagomål/A 55776-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/klagomål/A 55776-2021.docx", "A 55776-2021")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/klagomålsmail/A 55776-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/klagomålsmail/A 55776-2021.docx", "A 55776-2021")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/tillsyn/A 55776-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/tillsyn/A 55776-2021.docx", "A 55776-2021")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/tillsynsmail/A 55776-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/tillsynsmail/A 55776-2021.docx", "A 55776-2021")</f>
         <v/>
       </c>
     </row>
@@ -855,7 +855,7 @@
         <v>44559</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -909,27 +909,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/artfynd/A 74306-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/artfynd/A 74306-2021.xlsx", "A 74306-2021")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/kartor/A 74306-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/kartor/A 74306-2021.png", "A 74306-2021")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/klagomål/A 74306-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/klagomål/A 74306-2021.docx", "A 74306-2021")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/klagomålsmail/A 74306-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/klagomålsmail/A 74306-2021.docx", "A 74306-2021")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/tillsyn/A 74306-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/tillsyn/A 74306-2021.docx", "A 74306-2021")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/tillsynsmail/A 74306-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/tillsynsmail/A 74306-2021.docx", "A 74306-2021")</f>
         <v/>
       </c>
     </row>
@@ -943,7 +943,7 @@
         <v>44546</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -996,31 +996,31 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/artfynd/A 72588-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/artfynd/A 72588-2021.xlsx", "A 72588-2021")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/kartor/A 72588-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/kartor/A 72588-2021.png", "A 72588-2021")</f>
         <v/>
       </c>
       <c r="U6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/knärot/A 72588-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/knärot/A 72588-2021.png", "A 72588-2021")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/klagomål/A 72588-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/klagomål/A 72588-2021.docx", "A 72588-2021")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/klagomålsmail/A 72588-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/klagomålsmail/A 72588-2021.docx", "A 72588-2021")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/tillsyn/A 72588-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/tillsyn/A 72588-2021.docx", "A 72588-2021")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/tillsynsmail/A 72588-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/tillsynsmail/A 72588-2021.docx", "A 72588-2021")</f>
         <v/>
       </c>
     </row>
@@ -1034,7 +1034,7 @@
         <v>45014</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1087,31 +1087,31 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/artfynd/A 14805-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/artfynd/A 14805-2023.xlsx", "A 14805-2023")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/kartor/A 14805-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/kartor/A 14805-2023.png", "A 14805-2023")</f>
         <v/>
       </c>
       <c r="U7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/knärot/A 14805-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/knärot/A 14805-2023.png", "A 14805-2023")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/klagomål/A 14805-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/klagomål/A 14805-2023.docx", "A 14805-2023")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/klagomålsmail/A 14805-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/klagomålsmail/A 14805-2023.docx", "A 14805-2023")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/tillsyn/A 14805-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/tillsyn/A 14805-2023.docx", "A 14805-2023")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/tillsynsmail/A 14805-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/tillsynsmail/A 14805-2023.docx", "A 14805-2023")</f>
         <v/>
       </c>
     </row>
@@ -1125,7 +1125,7 @@
         <v>43493</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1177,31 +1177,31 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/artfynd/A 5968-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/artfynd/A 5968-2019.xlsx", "A 5968-2019")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/kartor/A 5968-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/kartor/A 5968-2019.png", "A 5968-2019")</f>
         <v/>
       </c>
       <c r="U8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/knärot/A 5968-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/knärot/A 5968-2019.png", "A 5968-2019")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/klagomål/A 5968-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/klagomål/A 5968-2019.docx", "A 5968-2019")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/klagomålsmail/A 5968-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/klagomålsmail/A 5968-2019.docx", "A 5968-2019")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/tillsyn/A 5968-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/tillsyn/A 5968-2019.docx", "A 5968-2019")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/tillsynsmail/A 5968-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/tillsynsmail/A 5968-2019.docx", "A 5968-2019")</f>
         <v/>
       </c>
     </row>
@@ -1215,7 +1215,7 @@
         <v>43514</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1267,27 +1267,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/artfynd/A 10583-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/artfynd/A 10583-2019.xlsx", "A 10583-2019")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/kartor/A 10583-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/kartor/A 10583-2019.png", "A 10583-2019")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/klagomål/A 10583-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/klagomål/A 10583-2019.docx", "A 10583-2019")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/klagomålsmail/A 10583-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/klagomålsmail/A 10583-2019.docx", "A 10583-2019")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/tillsyn/A 10583-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/tillsyn/A 10583-2019.docx", "A 10583-2019")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/tillsynsmail/A 10583-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/tillsynsmail/A 10583-2019.docx", "A 10583-2019")</f>
         <v/>
       </c>
     </row>
@@ -1301,7 +1301,7 @@
         <v>43870</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1353,31 +1353,31 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/artfynd/A 7169-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/artfynd/A 7169-2020.xlsx", "A 7169-2020")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/kartor/A 7169-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/kartor/A 7169-2020.png", "A 7169-2020")</f>
         <v/>
       </c>
       <c r="U10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/knärot/A 7169-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/knärot/A 7169-2020.png", "A 7169-2020")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/klagomål/A 7169-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/klagomål/A 7169-2020.docx", "A 7169-2020")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/klagomålsmail/A 7169-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/klagomålsmail/A 7169-2020.docx", "A 7169-2020")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/tillsyn/A 7169-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/tillsyn/A 7169-2020.docx", "A 7169-2020")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/tillsynsmail/A 7169-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/tillsynsmail/A 7169-2020.docx", "A 7169-2020")</f>
         <v/>
       </c>
     </row>
@@ -1391,7 +1391,7 @@
         <v>44266</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1443,27 +1443,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/artfynd/A 11984-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/artfynd/A 11984-2021.xlsx", "A 11984-2021")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/kartor/A 11984-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/kartor/A 11984-2021.png", "A 11984-2021")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/klagomål/A 11984-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/klagomål/A 11984-2021.docx", "A 11984-2021")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/klagomålsmail/A 11984-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/klagomålsmail/A 11984-2021.docx", "A 11984-2021")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/tillsyn/A 11984-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/tillsyn/A 11984-2021.docx", "A 11984-2021")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/tillsynsmail/A 11984-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/tillsynsmail/A 11984-2021.docx", "A 11984-2021")</f>
         <v/>
       </c>
     </row>
@@ -1477,7 +1477,7 @@
         <v>43506</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1528,27 +1528,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/artfynd/A 9198-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/artfynd/A 9198-2019.xlsx", "A 9198-2019")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/kartor/A 9198-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/kartor/A 9198-2019.png", "A 9198-2019")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/klagomål/A 9198-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/klagomål/A 9198-2019.docx", "A 9198-2019")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/klagomålsmail/A 9198-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/klagomålsmail/A 9198-2019.docx", "A 9198-2019")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/tillsyn/A 9198-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/tillsyn/A 9198-2019.docx", "A 9198-2019")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/tillsynsmail/A 9198-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/tillsynsmail/A 9198-2019.docx", "A 9198-2019")</f>
         <v/>
       </c>
     </row>
@@ -1562,7 +1562,7 @@
         <v>43621</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1613,27 +1613,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/artfynd/A 28006-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/artfynd/A 28006-2019.xlsx", "A 28006-2019")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/kartor/A 28006-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/kartor/A 28006-2019.png", "A 28006-2019")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/klagomål/A 28006-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/klagomål/A 28006-2019.docx", "A 28006-2019")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/klagomålsmail/A 28006-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/klagomålsmail/A 28006-2019.docx", "A 28006-2019")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/tillsyn/A 28006-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/tillsyn/A 28006-2019.docx", "A 28006-2019")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/tillsynsmail/A 28006-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/tillsynsmail/A 28006-2019.docx", "A 28006-2019")</f>
         <v/>
       </c>
     </row>
@@ -1647,7 +1647,7 @@
         <v>43621</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1698,27 +1698,27 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/artfynd/A 28010-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/artfynd/A 28010-2019.xlsx", "A 28010-2019")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/kartor/A 28010-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/kartor/A 28010-2019.png", "A 28010-2019")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/klagomål/A 28010-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/klagomål/A 28010-2019.docx", "A 28010-2019")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/klagomålsmail/A 28010-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/klagomålsmail/A 28010-2019.docx", "A 28010-2019")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/tillsyn/A 28010-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/tillsyn/A 28010-2019.docx", "A 28010-2019")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/tillsynsmail/A 28010-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/tillsynsmail/A 28010-2019.docx", "A 28010-2019")</f>
         <v/>
       </c>
     </row>
@@ -1732,7 +1732,7 @@
         <v>43819</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1783,31 +1783,31 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/artfynd/A 997-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/artfynd/A 997-2020.xlsx", "A 997-2020")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/kartor/A 997-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/kartor/A 997-2020.png", "A 997-2020")</f>
         <v/>
       </c>
       <c r="U15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/knärot/A 997-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/knärot/A 997-2020.png", "A 997-2020")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/klagomål/A 997-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/klagomål/A 997-2020.docx", "A 997-2020")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/klagomålsmail/A 997-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/klagomålsmail/A 997-2020.docx", "A 997-2020")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/tillsyn/A 997-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/tillsyn/A 997-2020.docx", "A 997-2020")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/tillsynsmail/A 997-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/tillsynsmail/A 997-2020.docx", "A 997-2020")</f>
         <v/>
       </c>
     </row>
@@ -1821,7 +1821,7 @@
         <v>43858</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1872,27 +1872,27 @@
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/artfynd/A 4522-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/artfynd/A 4522-2020.xlsx", "A 4522-2020")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/kartor/A 4522-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/kartor/A 4522-2020.png", "A 4522-2020")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/klagomål/A 4522-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/klagomål/A 4522-2020.docx", "A 4522-2020")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/klagomålsmail/A 4522-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/klagomålsmail/A 4522-2020.docx", "A 4522-2020")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/tillsyn/A 4522-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/tillsyn/A 4522-2020.docx", "A 4522-2020")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/tillsynsmail/A 4522-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/tillsynsmail/A 4522-2020.docx", "A 4522-2020")</f>
         <v/>
       </c>
     </row>
@@ -1906,7 +1906,7 @@
         <v>43858</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1962,31 +1962,31 @@
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/artfynd/A 4535-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/artfynd/A 4535-2020.xlsx", "A 4535-2020")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/kartor/A 4535-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/kartor/A 4535-2020.png", "A 4535-2020")</f>
         <v/>
       </c>
       <c r="U17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/knärot/A 4535-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/knärot/A 4535-2020.png", "A 4535-2020")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/klagomål/A 4535-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/klagomål/A 4535-2020.docx", "A 4535-2020")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/klagomålsmail/A 4535-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/klagomålsmail/A 4535-2020.docx", "A 4535-2020")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/tillsyn/A 4535-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/tillsyn/A 4535-2020.docx", "A 4535-2020")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/tillsynsmail/A 4535-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/tillsynsmail/A 4535-2020.docx", "A 4535-2020")</f>
         <v/>
       </c>
     </row>
@@ -2000,7 +2000,7 @@
         <v>44809</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2051,31 +2051,31 @@
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/artfynd/A 37428-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/artfynd/A 37428-2022.xlsx", "A 37428-2022")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/kartor/A 37428-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/kartor/A 37428-2022.png", "A 37428-2022")</f>
         <v/>
       </c>
       <c r="U18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/knärot/A 37428-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/knärot/A 37428-2022.png", "A 37428-2022")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/klagomål/A 37428-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/klagomål/A 37428-2022.docx", "A 37428-2022")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/klagomålsmail/A 37428-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/klagomålsmail/A 37428-2022.docx", "A 37428-2022")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/tillsyn/A 37428-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/tillsyn/A 37428-2022.docx", "A 37428-2022")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/tillsynsmail/A 37428-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/tillsynsmail/A 37428-2022.docx", "A 37428-2022")</f>
         <v/>
       </c>
     </row>
@@ -2089,7 +2089,7 @@
         <v>45014</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2140,31 +2140,31 @@
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/artfynd/A 14788-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/artfynd/A 14788-2023.xlsx", "A 14788-2023")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/kartor/A 14788-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/kartor/A 14788-2023.png", "A 14788-2023")</f>
         <v/>
       </c>
       <c r="U19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/knärot/A 14788-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/knärot/A 14788-2023.png", "A 14788-2023")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/klagomål/A 14788-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/klagomål/A 14788-2023.docx", "A 14788-2023")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/klagomålsmail/A 14788-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/klagomålsmail/A 14788-2023.docx", "A 14788-2023")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/tillsyn/A 14788-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/tillsyn/A 14788-2023.docx", "A 14788-2023")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/tillsynsmail/A 14788-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/tillsynsmail/A 14788-2023.docx", "A 14788-2023")</f>
         <v/>
       </c>
     </row>
@@ -2178,7 +2178,7 @@
         <v>45058</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2229,31 +2229,31 @@
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/artfynd/A 20709-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/artfynd/A 20709-2023.xlsx", "A 20709-2023")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/kartor/A 20709-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/kartor/A 20709-2023.png", "A 20709-2023")</f>
         <v/>
       </c>
       <c r="U20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/knärot/A 20709-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/knärot/A 20709-2023.png", "A 20709-2023")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/klagomål/A 20709-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/klagomål/A 20709-2023.docx", "A 20709-2023")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/klagomålsmail/A 20709-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/klagomålsmail/A 20709-2023.docx", "A 20709-2023")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/tillsyn/A 20709-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/tillsyn/A 20709-2023.docx", "A 20709-2023")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/tillsynsmail/A 20709-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/tillsynsmail/A 20709-2023.docx", "A 20709-2023")</f>
         <v/>
       </c>
     </row>
@@ -2267,7 +2267,7 @@
         <v>43332</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2324,7 +2324,7 @@
         <v>43347</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2381,7 +2381,7 @@
         <v>43369</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
         <v>43390</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>43397</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         <v>43438</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2609,7 +2609,7 @@
         <v>43438</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2666,7 +2666,7 @@
         <v>43440</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2723,7 +2723,7 @@
         <v>43446</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2780,7 +2780,7 @@
         <v>43446</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2837,7 +2837,7 @@
         <v>43455</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2894,7 +2894,7 @@
         <v>43468</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2951,7 +2951,7 @@
         <v>43480</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3008,7 +3008,7 @@
         <v>43486</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3065,7 +3065,7 @@
         <v>43487</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
         <v>43493</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3179,7 +3179,7 @@
         <v>43503</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3236,7 +3236,7 @@
         <v>43509</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3298,7 +3298,7 @@
         <v>43523</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
         <v>43524</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3412,7 +3412,7 @@
         <v>43552</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3469,7 +3469,7 @@
         <v>43567</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3526,7 +3526,7 @@
         <v>43606</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3583,7 +3583,7 @@
         <v>43606</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3640,7 +3640,7 @@
         <v>43621</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3697,7 +3697,7 @@
         <v>43621</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3754,7 +3754,7 @@
         <v>43621</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3811,7 +3811,7 @@
         <v>43621</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3868,7 +3868,7 @@
         <v>43621</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3925,7 +3925,7 @@
         <v>43636</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3982,7 +3982,7 @@
         <v>43642</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4029,23 +4029,23 @@
       </c>
       <c r="R51" s="2" t="inlineStr"/>
       <c r="U51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/knärot/A 31655-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/knärot/A 31655-2019.png", "A 31655-2019")</f>
         <v/>
       </c>
       <c r="V51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/klagomål/A 31655-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/klagomål/A 31655-2019.docx", "A 31655-2019")</f>
         <v/>
       </c>
       <c r="W51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/klagomålsmail/A 31655-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/klagomålsmail/A 31655-2019.docx", "A 31655-2019")</f>
         <v/>
       </c>
       <c r="X51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/tillsyn/A 31655-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/tillsyn/A 31655-2019.docx", "A 31655-2019")</f>
         <v/>
       </c>
       <c r="Y51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/tillsynsmail/A 31655-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ORUST/tillsynsmail/A 31655-2019.docx", "A 31655-2019")</f>
         <v/>
       </c>
     </row>
@@ -4059,7 +4059,7 @@
         <v>43649</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         <v>43652</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4173,7 +4173,7 @@
         <v>43788</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4230,7 +4230,7 @@
         <v>43788</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4287,7 +4287,7 @@
         <v>43804</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4344,7 +4344,7 @@
         <v>43840</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>43840</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4458,7 +4458,7 @@
         <v>43858</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>43858</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4582,7 +4582,7 @@
         <v>43858</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4639,7 +4639,7 @@
         <v>43958</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4696,7 +4696,7 @@
         <v>44006</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4753,7 +4753,7 @@
         <v>44112</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4810,7 +4810,7 @@
         <v>44141</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4867,7 +4867,7 @@
         <v>44155</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         <v>44169</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4981,7 +4981,7 @@
         <v>44172</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5038,7 +5038,7 @@
         <v>44182</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5095,7 +5095,7 @@
         <v>44236</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5152,7 +5152,7 @@
         <v>44250</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
         <v>44258</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>44319</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5323,7 +5323,7 @@
         <v>44326</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5380,7 +5380,7 @@
         <v>44326</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5437,7 +5437,7 @@
         <v>44386</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5494,7 +5494,7 @@
         <v>44439</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
         <v>44439</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         <v>44441</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5665,7 +5665,7 @@
         <v>44445</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5722,7 +5722,7 @@
         <v>44448</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         <v>44448</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5836,7 +5836,7 @@
         <v>44448</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5893,7 +5893,7 @@
         <v>44448</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5950,7 +5950,7 @@
         <v>44448</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6007,7 +6007,7 @@
         <v>44448</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6064,7 +6064,7 @@
         <v>44453</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6126,7 +6126,7 @@
         <v>44476</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6183,7 +6183,7 @@
         <v>44480</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6240,7 +6240,7 @@
         <v>44529</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6297,7 +6297,7 @@
         <v>44531</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6354,7 +6354,7 @@
         <v>44544</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6411,7 +6411,7 @@
         <v>44550</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>44609</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         <v>44610</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6582,7 +6582,7 @@
         <v>44655</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>44657</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6696,7 +6696,7 @@
         <v>44694</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
         <v>44790</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>44791</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>44792</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6924,7 +6924,7 @@
         <v>44827</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6981,7 +6981,7 @@
         <v>44862</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7038,7 +7038,7 @@
         <v>44872</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7095,7 +7095,7 @@
         <v>44881</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7152,7 +7152,7 @@
         <v>44904</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7209,7 +7209,7 @@
         <v>44931</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7266,7 +7266,7 @@
         <v>45002</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7323,7 +7323,7 @@
         <v>45014</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7380,7 +7380,7 @@
         <v>45014</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7437,7 +7437,7 @@
         <v>45014</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7494,7 +7494,7 @@
         <v>45014</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7551,7 +7551,7 @@
         <v>45014</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7608,7 +7608,7 @@
         <v>45014</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7665,7 +7665,7 @@
         <v>45020</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7722,7 +7722,7 @@
         <v>45020</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7779,7 +7779,7 @@
         <v>45020</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7836,7 +7836,7 @@
         <v>45044</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7893,7 +7893,7 @@
         <v>45045</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7950,7 +7950,7 @@
         <v>45054</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8007,7 +8007,7 @@
         <v>45054</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8064,7 +8064,7 @@
         <v>45058</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8121,7 +8121,7 @@
         <v>45130</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>

--- a/Översikt ORUST.xlsx
+++ b/Översikt ORUST.xlsx
@@ -572,7 +572,7 @@
         <v>44098</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>44112</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
         <v>44476</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -855,7 +855,7 @@
         <v>44559</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         <v>44546</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1034,7 +1034,7 @@
         <v>45014</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         <v>43493</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1215,7 +1215,7 @@
         <v>43514</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1301,7 +1301,7 @@
         <v>43870</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1391,7 +1391,7 @@
         <v>44266</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1477,7 +1477,7 @@
         <v>43506</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1562,7 +1562,7 @@
         <v>43621</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1647,7 +1647,7 @@
         <v>43621</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1732,7 +1732,7 @@
         <v>43819</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1821,7 +1821,7 @@
         <v>43858</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>43858</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2000,7 +2000,7 @@
         <v>44809</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>45014</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         <v>45058</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2267,7 +2267,7 @@
         <v>43332</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2324,7 +2324,7 @@
         <v>43347</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2381,7 +2381,7 @@
         <v>43369</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
         <v>43390</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>43397</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         <v>43438</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2609,7 +2609,7 @@
         <v>43438</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2666,7 +2666,7 @@
         <v>43440</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2723,7 +2723,7 @@
         <v>43446</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2780,7 +2780,7 @@
         <v>43446</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2837,7 +2837,7 @@
         <v>43455</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2894,7 +2894,7 @@
         <v>43468</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2951,7 +2951,7 @@
         <v>43480</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3008,7 +3008,7 @@
         <v>43486</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3065,7 +3065,7 @@
         <v>43487</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
         <v>43493</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3179,7 +3179,7 @@
         <v>43503</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3236,7 +3236,7 @@
         <v>43509</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3298,7 +3298,7 @@
         <v>43523</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
         <v>43524</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3412,7 +3412,7 @@
         <v>43552</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3469,7 +3469,7 @@
         <v>43567</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3526,7 +3526,7 @@
         <v>43606</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3583,7 +3583,7 @@
         <v>43606</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3640,7 +3640,7 @@
         <v>43621</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3697,7 +3697,7 @@
         <v>43621</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3754,7 +3754,7 @@
         <v>43621</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3811,7 +3811,7 @@
         <v>43621</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3868,7 +3868,7 @@
         <v>43621</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3925,7 +3925,7 @@
         <v>43636</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3982,7 +3982,7 @@
         <v>43642</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>43649</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         <v>43652</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4173,7 +4173,7 @@
         <v>43788</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4230,7 +4230,7 @@
         <v>43788</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4287,7 +4287,7 @@
         <v>43804</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4344,7 +4344,7 @@
         <v>43840</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>43840</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4458,7 +4458,7 @@
         <v>43858</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>43858</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4582,7 +4582,7 @@
         <v>43858</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4639,7 +4639,7 @@
         <v>43958</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4696,7 +4696,7 @@
         <v>44006</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4753,7 +4753,7 @@
         <v>44112</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4810,7 +4810,7 @@
         <v>44141</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4867,7 +4867,7 @@
         <v>44155</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         <v>44169</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4981,7 +4981,7 @@
         <v>44172</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5038,7 +5038,7 @@
         <v>44182</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5095,7 +5095,7 @@
         <v>44236</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5152,7 +5152,7 @@
         <v>44250</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
         <v>44258</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>44319</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5323,7 +5323,7 @@
         <v>44326</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5380,7 +5380,7 @@
         <v>44326</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5437,7 +5437,7 @@
         <v>44386</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5494,7 +5494,7 @@
         <v>44439</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
         <v>44439</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         <v>44441</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5665,7 +5665,7 @@
         <v>44445</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5722,7 +5722,7 @@
         <v>44448</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         <v>44448</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5836,7 +5836,7 @@
         <v>44448</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5893,7 +5893,7 @@
         <v>44448</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5950,7 +5950,7 @@
         <v>44448</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6007,7 +6007,7 @@
         <v>44448</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6064,7 +6064,7 @@
         <v>44453</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6126,7 +6126,7 @@
         <v>44476</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6183,7 +6183,7 @@
         <v>44480</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6240,7 +6240,7 @@
         <v>44529</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6297,7 +6297,7 @@
         <v>44531</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6354,7 +6354,7 @@
         <v>44544</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6411,7 +6411,7 @@
         <v>44550</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>44609</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         <v>44610</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6582,7 +6582,7 @@
         <v>44655</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>44657</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6696,7 +6696,7 @@
         <v>44694</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
         <v>44790</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>44791</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>44792</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6924,7 +6924,7 @@
         <v>44827</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6981,7 +6981,7 @@
         <v>44862</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7038,7 +7038,7 @@
         <v>44872</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7095,7 +7095,7 @@
         <v>44881</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7152,7 +7152,7 @@
         <v>44904</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7209,7 +7209,7 @@
         <v>44931</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7266,7 +7266,7 @@
         <v>45002</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7323,7 +7323,7 @@
         <v>45014</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7380,7 +7380,7 @@
         <v>45014</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7437,7 +7437,7 @@
         <v>45014</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7494,7 +7494,7 @@
         <v>45014</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7551,7 +7551,7 @@
         <v>45014</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7608,7 +7608,7 @@
         <v>45014</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7665,7 +7665,7 @@
         <v>45020</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7722,7 +7722,7 @@
         <v>45020</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7779,7 +7779,7 @@
         <v>45020</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7836,7 +7836,7 @@
         <v>45044</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7893,7 +7893,7 @@
         <v>45045</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7950,7 +7950,7 @@
         <v>45054</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8007,7 +8007,7 @@
         <v>45054</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8064,7 +8064,7 @@
         <v>45058</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8121,7 +8121,7 @@
         <v>45130</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>

--- a/Översikt ORUST.xlsx
+++ b/Översikt ORUST.xlsx
@@ -572,7 +572,7 @@
         <v>44098</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>44112</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
         <v>44476</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -855,7 +855,7 @@
         <v>44559</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         <v>44546</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1034,7 +1034,7 @@
         <v>45014</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         <v>43493</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1215,7 +1215,7 @@
         <v>43514</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1301,7 +1301,7 @@
         <v>43870</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1391,7 +1391,7 @@
         <v>44266</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1477,7 +1477,7 @@
         <v>43506</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1562,7 +1562,7 @@
         <v>43621</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1647,7 +1647,7 @@
         <v>43621</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1732,7 +1732,7 @@
         <v>43819</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1821,7 +1821,7 @@
         <v>43858</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>43858</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2000,7 +2000,7 @@
         <v>44809</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>45014</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         <v>45058</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2267,7 +2267,7 @@
         <v>43332</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2324,7 +2324,7 @@
         <v>43347</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2381,7 +2381,7 @@
         <v>43369</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
         <v>43390</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>43397</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         <v>43438</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2609,7 +2609,7 @@
         <v>43438</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2666,7 +2666,7 @@
         <v>43440</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2723,7 +2723,7 @@
         <v>43446</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2780,7 +2780,7 @@
         <v>43446</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2837,7 +2837,7 @@
         <v>43455</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2894,7 +2894,7 @@
         <v>43468</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2951,7 +2951,7 @@
         <v>43480</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3008,7 +3008,7 @@
         <v>43486</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3065,7 +3065,7 @@
         <v>43487</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
         <v>43493</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3179,7 +3179,7 @@
         <v>43503</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3236,7 +3236,7 @@
         <v>43509</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3298,7 +3298,7 @@
         <v>43523</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
         <v>43524</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3412,7 +3412,7 @@
         <v>43552</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3469,7 +3469,7 @@
         <v>43567</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3526,7 +3526,7 @@
         <v>43606</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3583,7 +3583,7 @@
         <v>43606</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3640,7 +3640,7 @@
         <v>43621</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3697,7 +3697,7 @@
         <v>43621</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3754,7 +3754,7 @@
         <v>43621</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3811,7 +3811,7 @@
         <v>43621</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3868,7 +3868,7 @@
         <v>43621</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3925,7 +3925,7 @@
         <v>43636</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3982,7 +3982,7 @@
         <v>43642</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>43649</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         <v>43652</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4173,7 +4173,7 @@
         <v>43788</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4230,7 +4230,7 @@
         <v>43788</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4287,7 +4287,7 @@
         <v>43804</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4344,7 +4344,7 @@
         <v>43840</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>43840</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4458,7 +4458,7 @@
         <v>43858</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>43858</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4582,7 +4582,7 @@
         <v>43858</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4639,7 +4639,7 @@
         <v>43958</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4696,7 +4696,7 @@
         <v>44006</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4753,7 +4753,7 @@
         <v>44112</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4810,7 +4810,7 @@
         <v>44141</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4867,7 +4867,7 @@
         <v>44155</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         <v>44169</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4981,7 +4981,7 @@
         <v>44172</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5038,7 +5038,7 @@
         <v>44182</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5095,7 +5095,7 @@
         <v>44236</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5152,7 +5152,7 @@
         <v>44250</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
         <v>44258</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>44319</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5323,7 +5323,7 @@
         <v>44326</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5380,7 +5380,7 @@
         <v>44326</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5437,7 +5437,7 @@
         <v>44386</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5494,7 +5494,7 @@
         <v>44439</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
         <v>44439</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         <v>44441</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5665,7 +5665,7 @@
         <v>44445</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5722,7 +5722,7 @@
         <v>44448</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         <v>44448</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5836,7 +5836,7 @@
         <v>44448</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5893,7 +5893,7 @@
         <v>44448</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5950,7 +5950,7 @@
         <v>44448</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6007,7 +6007,7 @@
         <v>44448</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6064,7 +6064,7 @@
         <v>44453</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6126,7 +6126,7 @@
         <v>44476</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6183,7 +6183,7 @@
         <v>44480</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6240,7 +6240,7 @@
         <v>44529</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6297,7 +6297,7 @@
         <v>44531</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6354,7 +6354,7 @@
         <v>44544</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6411,7 +6411,7 @@
         <v>44550</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>44609</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         <v>44610</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6582,7 +6582,7 @@
         <v>44655</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>44657</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6696,7 +6696,7 @@
         <v>44694</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
         <v>44790</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>44791</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>44792</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6924,7 +6924,7 @@
         <v>44827</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6981,7 +6981,7 @@
         <v>44862</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7038,7 +7038,7 @@
         <v>44872</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7095,7 +7095,7 @@
         <v>44881</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7152,7 +7152,7 @@
         <v>44904</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7209,7 +7209,7 @@
         <v>44931</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7266,7 +7266,7 @@
         <v>45002</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7323,7 +7323,7 @@
         <v>45014</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7380,7 +7380,7 @@
         <v>45014</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7437,7 +7437,7 @@
         <v>45014</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7494,7 +7494,7 @@
         <v>45014</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7551,7 +7551,7 @@
         <v>45014</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7608,7 +7608,7 @@
         <v>45014</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7665,7 +7665,7 @@
         <v>45020</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7722,7 +7722,7 @@
         <v>45020</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7779,7 +7779,7 @@
         <v>45020</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7836,7 +7836,7 @@
         <v>45044</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7893,7 +7893,7 @@
         <v>45045</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7950,7 +7950,7 @@
         <v>45054</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8007,7 +8007,7 @@
         <v>45054</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8064,7 +8064,7 @@
         <v>45058</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8121,7 +8121,7 @@
         <v>45130</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>

--- a/Översikt ORUST.xlsx
+++ b/Översikt ORUST.xlsx
@@ -572,7 +572,7 @@
         <v>44098</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>44112</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
         <v>44476</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -855,7 +855,7 @@
         <v>44559</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         <v>44546</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1034,7 +1034,7 @@
         <v>45014</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         <v>43493</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1215,7 +1215,7 @@
         <v>43514</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1301,7 +1301,7 @@
         <v>43870</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1391,7 +1391,7 @@
         <v>44266</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1477,7 +1477,7 @@
         <v>43506</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1562,7 +1562,7 @@
         <v>43621</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1647,7 +1647,7 @@
         <v>43621</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1732,7 +1732,7 @@
         <v>43819</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1821,7 +1821,7 @@
         <v>43858</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>43858</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2000,7 +2000,7 @@
         <v>44809</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>45014</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         <v>45058</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2267,7 +2267,7 @@
         <v>43332</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2324,7 +2324,7 @@
         <v>43347</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2381,7 +2381,7 @@
         <v>43369</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
         <v>43390</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>43397</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         <v>43438</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2609,7 +2609,7 @@
         <v>43438</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2666,7 +2666,7 @@
         <v>43440</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2723,7 +2723,7 @@
         <v>43446</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2780,7 +2780,7 @@
         <v>43446</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2837,7 +2837,7 @@
         <v>43455</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2894,7 +2894,7 @@
         <v>43468</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2951,7 +2951,7 @@
         <v>43480</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3008,7 +3008,7 @@
         <v>43486</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3065,7 +3065,7 @@
         <v>43487</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
         <v>43493</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3179,7 +3179,7 @@
         <v>43503</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3236,7 +3236,7 @@
         <v>43509</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3298,7 +3298,7 @@
         <v>43523</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
         <v>43524</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3412,7 +3412,7 @@
         <v>43552</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3469,7 +3469,7 @@
         <v>43567</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3526,7 +3526,7 @@
         <v>43606</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3583,7 +3583,7 @@
         <v>43606</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3640,7 +3640,7 @@
         <v>43621</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3697,7 +3697,7 @@
         <v>43621</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3754,7 +3754,7 @@
         <v>43621</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3811,7 +3811,7 @@
         <v>43621</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3868,7 +3868,7 @@
         <v>43621</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3925,7 +3925,7 @@
         <v>43636</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3982,7 +3982,7 @@
         <v>43642</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>43649</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         <v>43652</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4173,7 +4173,7 @@
         <v>43788</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4230,7 +4230,7 @@
         <v>43788</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4287,7 +4287,7 @@
         <v>43804</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4344,7 +4344,7 @@
         <v>43840</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>43840</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4458,7 +4458,7 @@
         <v>43858</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>43858</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4582,7 +4582,7 @@
         <v>43858</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4639,7 +4639,7 @@
         <v>43958</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4696,7 +4696,7 @@
         <v>44006</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4753,7 +4753,7 @@
         <v>44112</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4810,7 +4810,7 @@
         <v>44141</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4867,7 +4867,7 @@
         <v>44155</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         <v>44169</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4981,7 +4981,7 @@
         <v>44172</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5038,7 +5038,7 @@
         <v>44182</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5095,7 +5095,7 @@
         <v>44236</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5152,7 +5152,7 @@
         <v>44250</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
         <v>44258</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>44319</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5323,7 +5323,7 @@
         <v>44326</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5380,7 +5380,7 @@
         <v>44326</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5437,7 +5437,7 @@
         <v>44386</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5494,7 +5494,7 @@
         <v>44439</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
         <v>44439</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         <v>44441</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5665,7 +5665,7 @@
         <v>44445</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5722,7 +5722,7 @@
         <v>44448</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         <v>44448</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5836,7 +5836,7 @@
         <v>44448</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5893,7 +5893,7 @@
         <v>44448</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5950,7 +5950,7 @@
         <v>44448</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6007,7 +6007,7 @@
         <v>44448</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6064,7 +6064,7 @@
         <v>44453</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6126,7 +6126,7 @@
         <v>44476</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6183,7 +6183,7 @@
         <v>44480</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6240,7 +6240,7 @@
         <v>44529</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6297,7 +6297,7 @@
         <v>44531</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6354,7 +6354,7 @@
         <v>44544</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6411,7 +6411,7 @@
         <v>44550</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>44609</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         <v>44610</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6582,7 +6582,7 @@
         <v>44655</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>44657</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6696,7 +6696,7 @@
         <v>44694</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
         <v>44790</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>44791</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>44792</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6924,7 +6924,7 @@
         <v>44827</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6981,7 +6981,7 @@
         <v>44862</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7038,7 +7038,7 @@
         <v>44872</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7095,7 +7095,7 @@
         <v>44881</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7152,7 +7152,7 @@
         <v>44904</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7209,7 +7209,7 @@
         <v>44931</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7266,7 +7266,7 @@
         <v>45002</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7323,7 +7323,7 @@
         <v>45014</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7380,7 +7380,7 @@
         <v>45014</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7437,7 +7437,7 @@
         <v>45014</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7494,7 +7494,7 @@
         <v>45014</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7551,7 +7551,7 @@
         <v>45014</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7608,7 +7608,7 @@
         <v>45014</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7665,7 +7665,7 @@
         <v>45020</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7722,7 +7722,7 @@
         <v>45020</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7779,7 +7779,7 @@
         <v>45020</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7836,7 +7836,7 @@
         <v>45044</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7893,7 +7893,7 @@
         <v>45045</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7950,7 +7950,7 @@
         <v>45054</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8007,7 +8007,7 @@
         <v>45054</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8064,7 +8064,7 @@
         <v>45058</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8121,7 +8121,7 @@
         <v>45130</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>

--- a/Översikt ORUST.xlsx
+++ b/Översikt ORUST.xlsx
@@ -572,7 +572,7 @@
         <v>44098</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>44112</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
         <v>44476</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -855,7 +855,7 @@
         <v>44559</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         <v>44546</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1034,7 +1034,7 @@
         <v>45014</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         <v>43493</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1215,7 +1215,7 @@
         <v>43514</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1301,7 +1301,7 @@
         <v>43870</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1391,7 +1391,7 @@
         <v>44266</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1477,7 +1477,7 @@
         <v>43506</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1562,7 +1562,7 @@
         <v>43621</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1647,7 +1647,7 @@
         <v>43621</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1732,7 +1732,7 @@
         <v>43819</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1821,7 +1821,7 @@
         <v>43858</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>43858</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2000,7 +2000,7 @@
         <v>44809</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>45014</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         <v>45058</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2267,7 +2267,7 @@
         <v>43332</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2324,7 +2324,7 @@
         <v>43347</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2381,7 +2381,7 @@
         <v>43369</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
         <v>43390</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>43397</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         <v>43438</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2609,7 +2609,7 @@
         <v>43438</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2666,7 +2666,7 @@
         <v>43440</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2723,7 +2723,7 @@
         <v>43446</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2780,7 +2780,7 @@
         <v>43446</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2837,7 +2837,7 @@
         <v>43455</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2894,7 +2894,7 @@
         <v>43468</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2951,7 +2951,7 @@
         <v>43480</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3008,7 +3008,7 @@
         <v>43486</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3065,7 +3065,7 @@
         <v>43487</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
         <v>43493</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3179,7 +3179,7 @@
         <v>43503</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3236,7 +3236,7 @@
         <v>43509</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3298,7 +3298,7 @@
         <v>43523</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
         <v>43524</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3412,7 +3412,7 @@
         <v>43552</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3469,7 +3469,7 @@
         <v>43567</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3526,7 +3526,7 @@
         <v>43606</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3583,7 +3583,7 @@
         <v>43606</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3640,7 +3640,7 @@
         <v>43621</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3697,7 +3697,7 @@
         <v>43621</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3754,7 +3754,7 @@
         <v>43621</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3811,7 +3811,7 @@
         <v>43621</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3868,7 +3868,7 @@
         <v>43621</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3925,7 +3925,7 @@
         <v>43636</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3982,7 +3982,7 @@
         <v>43642</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>43649</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         <v>43652</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4173,7 +4173,7 @@
         <v>43788</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4230,7 +4230,7 @@
         <v>43788</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4287,7 +4287,7 @@
         <v>43804</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4344,7 +4344,7 @@
         <v>43840</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>43840</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4458,7 +4458,7 @@
         <v>43858</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>43858</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4582,7 +4582,7 @@
         <v>43858</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4639,7 +4639,7 @@
         <v>43958</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4696,7 +4696,7 @@
         <v>44006</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4753,7 +4753,7 @@
         <v>44112</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4810,7 +4810,7 @@
         <v>44141</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4867,7 +4867,7 @@
         <v>44155</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         <v>44169</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4981,7 +4981,7 @@
         <v>44172</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5038,7 +5038,7 @@
         <v>44182</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5095,7 +5095,7 @@
         <v>44236</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5152,7 +5152,7 @@
         <v>44250</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
         <v>44258</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>44319</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5323,7 +5323,7 @@
         <v>44326</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5380,7 +5380,7 @@
         <v>44326</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5437,7 +5437,7 @@
         <v>44386</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5494,7 +5494,7 @@
         <v>44439</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
         <v>44439</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         <v>44441</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5665,7 +5665,7 @@
         <v>44445</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5722,7 +5722,7 @@
         <v>44448</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         <v>44448</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5836,7 +5836,7 @@
         <v>44448</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5893,7 +5893,7 @@
         <v>44448</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5950,7 +5950,7 @@
         <v>44448</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6007,7 +6007,7 @@
         <v>44448</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6064,7 +6064,7 @@
         <v>44453</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6126,7 +6126,7 @@
         <v>44476</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6183,7 +6183,7 @@
         <v>44480</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6240,7 +6240,7 @@
         <v>44529</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6297,7 +6297,7 @@
         <v>44531</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6354,7 +6354,7 @@
         <v>44544</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6411,7 +6411,7 @@
         <v>44550</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>44609</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         <v>44610</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6582,7 +6582,7 @@
         <v>44655</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>44657</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6696,7 +6696,7 @@
         <v>44694</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
         <v>44790</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>44791</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>44792</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6924,7 +6924,7 @@
         <v>44827</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6981,7 +6981,7 @@
         <v>44862</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7038,7 +7038,7 @@
         <v>44872</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7095,7 +7095,7 @@
         <v>44881</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7152,7 +7152,7 @@
         <v>44904</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7209,7 +7209,7 @@
         <v>44931</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7266,7 +7266,7 @@
         <v>45002</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7323,7 +7323,7 @@
         <v>45014</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7380,7 +7380,7 @@
         <v>45014</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7437,7 +7437,7 @@
         <v>45014</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7494,7 +7494,7 @@
         <v>45014</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7551,7 +7551,7 @@
         <v>45014</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7608,7 +7608,7 @@
         <v>45014</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7665,7 +7665,7 @@
         <v>45020</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7722,7 +7722,7 @@
         <v>45020</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7779,7 +7779,7 @@
         <v>45020</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7836,7 +7836,7 @@
         <v>45044</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7893,7 +7893,7 @@
         <v>45045</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7950,7 +7950,7 @@
         <v>45054</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8007,7 +8007,7 @@
         <v>45054</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8064,7 +8064,7 @@
         <v>45058</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8121,7 +8121,7 @@
         <v>45130</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>

--- a/Översikt ORUST.xlsx
+++ b/Översikt ORUST.xlsx
@@ -572,7 +572,7 @@
         <v>44098</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>44112</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
         <v>44476</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -855,7 +855,7 @@
         <v>44559</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         <v>44546</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1034,7 +1034,7 @@
         <v>45014</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         <v>43493</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1215,7 +1215,7 @@
         <v>43514</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1301,7 +1301,7 @@
         <v>43870</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1391,7 +1391,7 @@
         <v>44266</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1477,7 +1477,7 @@
         <v>43506</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1562,7 +1562,7 @@
         <v>43621</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1647,7 +1647,7 @@
         <v>43621</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1732,7 +1732,7 @@
         <v>43819</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1821,7 +1821,7 @@
         <v>43858</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>43858</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2000,7 +2000,7 @@
         <v>44809</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>45014</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         <v>45058</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2267,7 +2267,7 @@
         <v>43332</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2324,7 +2324,7 @@
         <v>43347</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2381,7 +2381,7 @@
         <v>43369</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
         <v>43390</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>43397</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         <v>43438</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2609,7 +2609,7 @@
         <v>43438</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2666,7 +2666,7 @@
         <v>43440</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2723,7 +2723,7 @@
         <v>43446</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2780,7 +2780,7 @@
         <v>43446</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2837,7 +2837,7 @@
         <v>43455</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2894,7 +2894,7 @@
         <v>43468</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2951,7 +2951,7 @@
         <v>43480</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3008,7 +3008,7 @@
         <v>43486</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3065,7 +3065,7 @@
         <v>43487</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
         <v>43493</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3179,7 +3179,7 @@
         <v>43503</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3236,7 +3236,7 @@
         <v>43509</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3298,7 +3298,7 @@
         <v>43523</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
         <v>43524</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3412,7 +3412,7 @@
         <v>43552</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3469,7 +3469,7 @@
         <v>43567</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3526,7 +3526,7 @@
         <v>43606</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3583,7 +3583,7 @@
         <v>43606</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3640,7 +3640,7 @@
         <v>43621</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3697,7 +3697,7 @@
         <v>43621</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3754,7 +3754,7 @@
         <v>43621</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3811,7 +3811,7 @@
         <v>43621</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3868,7 +3868,7 @@
         <v>43621</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3925,7 +3925,7 @@
         <v>43636</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3982,7 +3982,7 @@
         <v>43642</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>43649</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         <v>43652</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4173,7 +4173,7 @@
         <v>43788</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4230,7 +4230,7 @@
         <v>43788</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4287,7 +4287,7 @@
         <v>43804</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4344,7 +4344,7 @@
         <v>43840</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>43840</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4458,7 +4458,7 @@
         <v>43858</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>43858</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4582,7 +4582,7 @@
         <v>43858</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4639,7 +4639,7 @@
         <v>43958</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4696,7 +4696,7 @@
         <v>44006</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4753,7 +4753,7 @@
         <v>44112</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4810,7 +4810,7 @@
         <v>44141</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4867,7 +4867,7 @@
         <v>44155</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         <v>44169</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4981,7 +4981,7 @@
         <v>44172</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5038,7 +5038,7 @@
         <v>44182</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5095,7 +5095,7 @@
         <v>44236</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5152,7 +5152,7 @@
         <v>44250</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
         <v>44258</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>44319</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5323,7 +5323,7 @@
         <v>44326</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5380,7 +5380,7 @@
         <v>44326</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5437,7 +5437,7 @@
         <v>44386</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5494,7 +5494,7 @@
         <v>44439</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
         <v>44439</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         <v>44441</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5665,7 +5665,7 @@
         <v>44445</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5722,7 +5722,7 @@
         <v>44448</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         <v>44448</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5836,7 +5836,7 @@
         <v>44448</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5893,7 +5893,7 @@
         <v>44448</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5950,7 +5950,7 @@
         <v>44448</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6007,7 +6007,7 @@
         <v>44448</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6064,7 +6064,7 @@
         <v>44453</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6126,7 +6126,7 @@
         <v>44476</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6183,7 +6183,7 @@
         <v>44480</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6240,7 +6240,7 @@
         <v>44529</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6297,7 +6297,7 @@
         <v>44531</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6354,7 +6354,7 @@
         <v>44544</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6411,7 +6411,7 @@
         <v>44550</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>44609</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         <v>44610</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6582,7 +6582,7 @@
         <v>44655</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>44657</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6696,7 +6696,7 @@
         <v>44694</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
         <v>44790</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>44791</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>44792</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6924,7 +6924,7 @@
         <v>44827</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6981,7 +6981,7 @@
         <v>44862</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7038,7 +7038,7 @@
         <v>44872</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7095,7 +7095,7 @@
         <v>44881</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7152,7 +7152,7 @@
         <v>44904</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7209,7 +7209,7 @@
         <v>44931</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7266,7 +7266,7 @@
         <v>45002</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7323,7 +7323,7 @@
         <v>45014</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7380,7 +7380,7 @@
         <v>45014</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7437,7 +7437,7 @@
         <v>45014</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7494,7 +7494,7 @@
         <v>45014</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7551,7 +7551,7 @@
         <v>45014</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7608,7 +7608,7 @@
         <v>45014</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7665,7 +7665,7 @@
         <v>45020</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7722,7 +7722,7 @@
         <v>45020</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7779,7 +7779,7 @@
         <v>45020</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7836,7 +7836,7 @@
         <v>45044</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7893,7 +7893,7 @@
         <v>45045</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7950,7 +7950,7 @@
         <v>45054</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8007,7 +8007,7 @@
         <v>45054</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8064,7 +8064,7 @@
         <v>45058</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8121,7 +8121,7 @@
         <v>45130</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>

--- a/Översikt ORUST.xlsx
+++ b/Översikt ORUST.xlsx
@@ -572,7 +572,7 @@
         <v>44098</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>44112</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
         <v>44476</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -855,7 +855,7 @@
         <v>44559</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         <v>44546</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1034,7 +1034,7 @@
         <v>45014</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         <v>43493</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1215,7 +1215,7 @@
         <v>43514</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1301,7 +1301,7 @@
         <v>43870</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1391,7 +1391,7 @@
         <v>44266</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1477,7 +1477,7 @@
         <v>43506</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1562,7 +1562,7 @@
         <v>43621</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1647,7 +1647,7 @@
         <v>43621</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1732,7 +1732,7 @@
         <v>43819</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1821,7 +1821,7 @@
         <v>43858</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>43858</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2000,7 +2000,7 @@
         <v>44809</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>45014</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         <v>45058</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2267,7 +2267,7 @@
         <v>43332</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2324,7 +2324,7 @@
         <v>43347</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2381,7 +2381,7 @@
         <v>43369</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
         <v>43390</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>43397</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         <v>43438</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2609,7 +2609,7 @@
         <v>43438</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2666,7 +2666,7 @@
         <v>43440</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2723,7 +2723,7 @@
         <v>43446</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2780,7 +2780,7 @@
         <v>43446</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2837,7 +2837,7 @@
         <v>43455</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2894,7 +2894,7 @@
         <v>43468</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2951,7 +2951,7 @@
         <v>43480</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3008,7 +3008,7 @@
         <v>43486</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3065,7 +3065,7 @@
         <v>43487</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
         <v>43493</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3179,7 +3179,7 @@
         <v>43503</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3236,7 +3236,7 @@
         <v>43509</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3298,7 +3298,7 @@
         <v>43523</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
         <v>43524</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3412,7 +3412,7 @@
         <v>43552</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3469,7 +3469,7 @@
         <v>43567</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3526,7 +3526,7 @@
         <v>43606</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3583,7 +3583,7 @@
         <v>43606</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3640,7 +3640,7 @@
         <v>43621</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3697,7 +3697,7 @@
         <v>43621</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3754,7 +3754,7 @@
         <v>43621</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3811,7 +3811,7 @@
         <v>43621</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3868,7 +3868,7 @@
         <v>43621</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3925,7 +3925,7 @@
         <v>43636</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3982,7 +3982,7 @@
         <v>43642</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>43649</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         <v>43652</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4173,7 +4173,7 @@
         <v>43788</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4230,7 +4230,7 @@
         <v>43788</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4287,7 +4287,7 @@
         <v>43804</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4344,7 +4344,7 @@
         <v>43840</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>43840</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4458,7 +4458,7 @@
         <v>43858</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>43858</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4582,7 +4582,7 @@
         <v>43858</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4639,7 +4639,7 @@
         <v>43958</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4696,7 +4696,7 @@
         <v>44006</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4753,7 +4753,7 @@
         <v>44112</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4810,7 +4810,7 @@
         <v>44141</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4867,7 +4867,7 @@
         <v>44155</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         <v>44169</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4981,7 +4981,7 @@
         <v>44172</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5038,7 +5038,7 @@
         <v>44182</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5095,7 +5095,7 @@
         <v>44236</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5152,7 +5152,7 @@
         <v>44250</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
         <v>44258</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>44319</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5323,7 +5323,7 @@
         <v>44326</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5380,7 +5380,7 @@
         <v>44326</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5437,7 +5437,7 @@
         <v>44386</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5494,7 +5494,7 @@
         <v>44439</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
         <v>44439</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         <v>44441</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5665,7 +5665,7 @@
         <v>44445</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5722,7 +5722,7 @@
         <v>44448</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         <v>44448</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5836,7 +5836,7 @@
         <v>44448</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5893,7 +5893,7 @@
         <v>44448</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5950,7 +5950,7 @@
         <v>44448</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6007,7 +6007,7 @@
         <v>44448</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6064,7 +6064,7 @@
         <v>44453</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6126,7 +6126,7 @@
         <v>44476</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6183,7 +6183,7 @@
         <v>44480</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6240,7 +6240,7 @@
         <v>44529</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6297,7 +6297,7 @@
         <v>44531</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6354,7 +6354,7 @@
         <v>44544</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6411,7 +6411,7 @@
         <v>44550</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>44609</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         <v>44610</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6582,7 +6582,7 @@
         <v>44655</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>44657</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6696,7 +6696,7 @@
         <v>44694</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
         <v>44790</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>44791</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>44792</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6924,7 +6924,7 @@
         <v>44827</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6981,7 +6981,7 @@
         <v>44862</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7038,7 +7038,7 @@
         <v>44872</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7095,7 +7095,7 @@
         <v>44881</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7152,7 +7152,7 @@
         <v>44904</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7209,7 +7209,7 @@
         <v>44931</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7266,7 +7266,7 @@
         <v>45002</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7323,7 +7323,7 @@
         <v>45014</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7380,7 +7380,7 @@
         <v>45014</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7437,7 +7437,7 @@
         <v>45014</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7494,7 +7494,7 @@
         <v>45014</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7551,7 +7551,7 @@
         <v>45014</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7608,7 +7608,7 @@
         <v>45014</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7665,7 +7665,7 @@
         <v>45020</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7722,7 +7722,7 @@
         <v>45020</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7779,7 +7779,7 @@
         <v>45020</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7836,7 +7836,7 @@
         <v>45044</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7893,7 +7893,7 @@
         <v>45045</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7950,7 +7950,7 @@
         <v>45054</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8007,7 +8007,7 @@
         <v>45054</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8064,7 +8064,7 @@
         <v>45058</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8121,7 +8121,7 @@
         <v>45130</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>

--- a/Översikt ORUST.xlsx
+++ b/Översikt ORUST.xlsx
@@ -572,7 +572,7 @@
         <v>44098</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>44112</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
         <v>44476</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -855,7 +855,7 @@
         <v>44559</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         <v>44546</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1034,7 +1034,7 @@
         <v>45014</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         <v>43493</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1215,7 +1215,7 @@
         <v>43514</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1301,7 +1301,7 @@
         <v>43870</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1391,7 +1391,7 @@
         <v>44266</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1477,7 +1477,7 @@
         <v>43506</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1562,7 +1562,7 @@
         <v>43621</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1647,7 +1647,7 @@
         <v>43621</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1732,7 +1732,7 @@
         <v>43819</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1821,7 +1821,7 @@
         <v>43858</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>43858</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2000,7 +2000,7 @@
         <v>44809</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>45014</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         <v>45058</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2267,7 +2267,7 @@
         <v>43332</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2324,7 +2324,7 @@
         <v>43347</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2381,7 +2381,7 @@
         <v>43369</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
         <v>43390</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>43397</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         <v>43438</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2609,7 +2609,7 @@
         <v>43438</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2666,7 +2666,7 @@
         <v>43440</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2723,7 +2723,7 @@
         <v>43446</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2780,7 +2780,7 @@
         <v>43446</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2837,7 +2837,7 @@
         <v>43455</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2894,7 +2894,7 @@
         <v>43468</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2951,7 +2951,7 @@
         <v>43480</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3008,7 +3008,7 @@
         <v>43486</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3065,7 +3065,7 @@
         <v>43487</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
         <v>43493</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3179,7 +3179,7 @@
         <v>43503</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3236,7 +3236,7 @@
         <v>43509</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3298,7 +3298,7 @@
         <v>43523</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
         <v>43524</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3412,7 +3412,7 @@
         <v>43552</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3469,7 +3469,7 @@
         <v>43567</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3526,7 +3526,7 @@
         <v>43606</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3583,7 +3583,7 @@
         <v>43606</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3640,7 +3640,7 @@
         <v>43621</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3697,7 +3697,7 @@
         <v>43621</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3754,7 +3754,7 @@
         <v>43621</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3811,7 +3811,7 @@
         <v>43621</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3868,7 +3868,7 @@
         <v>43621</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3925,7 +3925,7 @@
         <v>43636</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3982,7 +3982,7 @@
         <v>43642</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>43649</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         <v>43652</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4173,7 +4173,7 @@
         <v>43788</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4230,7 +4230,7 @@
         <v>43788</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4287,7 +4287,7 @@
         <v>43804</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4344,7 +4344,7 @@
         <v>43840</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>43840</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4458,7 +4458,7 @@
         <v>43858</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>43858</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4582,7 +4582,7 @@
         <v>43858</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4639,7 +4639,7 @@
         <v>43958</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4696,7 +4696,7 @@
         <v>44006</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4753,7 +4753,7 @@
         <v>44112</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4810,7 +4810,7 @@
         <v>44141</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4867,7 +4867,7 @@
         <v>44155</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         <v>44169</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4981,7 +4981,7 @@
         <v>44172</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5038,7 +5038,7 @@
         <v>44182</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5095,7 +5095,7 @@
         <v>44236</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5152,7 +5152,7 @@
         <v>44250</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
         <v>44258</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>44319</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5323,7 +5323,7 @@
         <v>44326</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5380,7 +5380,7 @@
         <v>44326</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5437,7 +5437,7 @@
         <v>44386</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5494,7 +5494,7 @@
         <v>44439</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
         <v>44439</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         <v>44441</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5665,7 +5665,7 @@
         <v>44445</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5722,7 +5722,7 @@
         <v>44448</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         <v>44448</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5836,7 +5836,7 @@
         <v>44448</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5893,7 +5893,7 @@
         <v>44448</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5950,7 +5950,7 @@
         <v>44448</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6007,7 +6007,7 @@
         <v>44448</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6064,7 +6064,7 @@
         <v>44453</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6126,7 +6126,7 @@
         <v>44476</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6183,7 +6183,7 @@
         <v>44480</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6240,7 +6240,7 @@
         <v>44529</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6297,7 +6297,7 @@
         <v>44531</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6354,7 +6354,7 @@
         <v>44544</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6411,7 +6411,7 @@
         <v>44550</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>44609</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         <v>44610</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6582,7 +6582,7 @@
         <v>44655</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>44657</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6696,7 +6696,7 @@
         <v>44694</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
         <v>44790</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>44791</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>44792</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6924,7 +6924,7 @@
         <v>44827</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6981,7 +6981,7 @@
         <v>44862</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7038,7 +7038,7 @@
         <v>44872</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7095,7 +7095,7 @@
         <v>44881</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7152,7 +7152,7 @@
         <v>44904</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7209,7 +7209,7 @@
         <v>44931</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7266,7 +7266,7 @@
         <v>45002</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7323,7 +7323,7 @@
         <v>45014</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7380,7 +7380,7 @@
         <v>45014</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7437,7 +7437,7 @@
         <v>45014</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7494,7 +7494,7 @@
         <v>45014</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7551,7 +7551,7 @@
         <v>45014</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7608,7 +7608,7 @@
         <v>45014</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7665,7 +7665,7 @@
         <v>45020</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7722,7 +7722,7 @@
         <v>45020</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7779,7 +7779,7 @@
         <v>45020</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7836,7 +7836,7 @@
         <v>45044</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7893,7 +7893,7 @@
         <v>45045</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7950,7 +7950,7 @@
         <v>45054</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8007,7 +8007,7 @@
         <v>45054</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8064,7 +8064,7 @@
         <v>45058</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8121,7 +8121,7 @@
         <v>45130</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>

--- a/Översikt ORUST.xlsx
+++ b/Översikt ORUST.xlsx
@@ -572,7 +572,7 @@
         <v>44098</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>44112</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
         <v>44476</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -855,7 +855,7 @@
         <v>44559</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         <v>44546</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1034,7 +1034,7 @@
         <v>45014</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         <v>43493</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1215,7 +1215,7 @@
         <v>43514</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1301,7 +1301,7 @@
         <v>43870</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1391,7 +1391,7 @@
         <v>44266</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1477,7 +1477,7 @@
         <v>43506</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1562,7 +1562,7 @@
         <v>43621</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1647,7 +1647,7 @@
         <v>43621</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1732,7 +1732,7 @@
         <v>43819</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1821,7 +1821,7 @@
         <v>43858</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>43858</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2000,7 +2000,7 @@
         <v>44809</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>45014</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         <v>45058</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2267,7 +2267,7 @@
         <v>43332</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2324,7 +2324,7 @@
         <v>43347</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2381,7 +2381,7 @@
         <v>43369</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
         <v>43390</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>43397</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         <v>43438</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2609,7 +2609,7 @@
         <v>43438</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2666,7 +2666,7 @@
         <v>43440</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2723,7 +2723,7 @@
         <v>43446</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2780,7 +2780,7 @@
         <v>43446</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2837,7 +2837,7 @@
         <v>43455</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2894,7 +2894,7 @@
         <v>43468</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2951,7 +2951,7 @@
         <v>43480</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3008,7 +3008,7 @@
         <v>43486</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3065,7 +3065,7 @@
         <v>43487</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
         <v>43493</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3179,7 +3179,7 @@
         <v>43503</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3236,7 +3236,7 @@
         <v>43509</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3298,7 +3298,7 @@
         <v>43523</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
         <v>43524</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3412,7 +3412,7 @@
         <v>43552</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3469,7 +3469,7 @@
         <v>43567</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3526,7 +3526,7 @@
         <v>43606</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3583,7 +3583,7 @@
         <v>43606</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3640,7 +3640,7 @@
         <v>43621</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3697,7 +3697,7 @@
         <v>43621</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3754,7 +3754,7 @@
         <v>43621</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3811,7 +3811,7 @@
         <v>43621</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3868,7 +3868,7 @@
         <v>43621</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3925,7 +3925,7 @@
         <v>43636</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3982,7 +3982,7 @@
         <v>43642</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>43649</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         <v>43652</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4173,7 +4173,7 @@
         <v>43788</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4230,7 +4230,7 @@
         <v>43788</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4287,7 +4287,7 @@
         <v>43804</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4344,7 +4344,7 @@
         <v>43840</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>43840</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4458,7 +4458,7 @@
         <v>43858</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>43858</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4582,7 +4582,7 @@
         <v>43858</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4639,7 +4639,7 @@
         <v>43958</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4696,7 +4696,7 @@
         <v>44006</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4753,7 +4753,7 @@
         <v>44112</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4810,7 +4810,7 @@
         <v>44141</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4867,7 +4867,7 @@
         <v>44155</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         <v>44169</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4981,7 +4981,7 @@
         <v>44172</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5038,7 +5038,7 @@
         <v>44182</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5095,7 +5095,7 @@
         <v>44236</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5152,7 +5152,7 @@
         <v>44250</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
         <v>44258</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>44319</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5323,7 +5323,7 @@
         <v>44326</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5380,7 +5380,7 @@
         <v>44326</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5437,7 +5437,7 @@
         <v>44386</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5494,7 +5494,7 @@
         <v>44439</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
         <v>44439</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         <v>44441</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5665,7 +5665,7 @@
         <v>44445</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5722,7 +5722,7 @@
         <v>44448</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         <v>44448</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5836,7 +5836,7 @@
         <v>44448</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5893,7 +5893,7 @@
         <v>44448</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5950,7 +5950,7 @@
         <v>44448</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6007,7 +6007,7 @@
         <v>44448</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6064,7 +6064,7 @@
         <v>44453</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6126,7 +6126,7 @@
         <v>44476</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6183,7 +6183,7 @@
         <v>44480</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6240,7 +6240,7 @@
         <v>44529</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6297,7 +6297,7 @@
         <v>44531</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6354,7 +6354,7 @@
         <v>44544</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6411,7 +6411,7 @@
         <v>44550</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>44609</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         <v>44610</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6582,7 +6582,7 @@
         <v>44655</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>44657</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6696,7 +6696,7 @@
         <v>44694</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
         <v>44790</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>44791</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>44792</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6924,7 +6924,7 @@
         <v>44827</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6981,7 +6981,7 @@
         <v>44862</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7038,7 +7038,7 @@
         <v>44872</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7095,7 +7095,7 @@
         <v>44881</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7152,7 +7152,7 @@
         <v>44904</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7209,7 +7209,7 @@
         <v>44931</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7266,7 +7266,7 @@
         <v>45002</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7323,7 +7323,7 @@
         <v>45014</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7380,7 +7380,7 @@
         <v>45014</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7437,7 +7437,7 @@
         <v>45014</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7494,7 +7494,7 @@
         <v>45014</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7551,7 +7551,7 @@
         <v>45014</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7608,7 +7608,7 @@
         <v>45014</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7665,7 +7665,7 @@
         <v>45020</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7722,7 +7722,7 @@
         <v>45020</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7779,7 +7779,7 @@
         <v>45020</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7836,7 +7836,7 @@
         <v>45044</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7893,7 +7893,7 @@
         <v>45045</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7950,7 +7950,7 @@
         <v>45054</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8007,7 +8007,7 @@
         <v>45054</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8064,7 +8064,7 @@
         <v>45058</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8121,7 +8121,7 @@
         <v>45130</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
